--- a/App Variation Tests/differences10.xlsx
+++ b/App Variation Tests/differences10.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unima\Proyectos\AppProcessGab\App Variation Tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62725592-A3C5-47CA-BF0A-8A9AC20A1F44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB1A436-6BEA-4533-BC6F-3AB15FB2500B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Diferencias entre app y python" sheetId="1" r:id="rId1"/>
@@ -337,9 +337,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -360,18 +357,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -443,15 +428,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -463,6 +439,30 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -18082,6 +18082,286 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>847725</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>2579468</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Imagen 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E48A22B-850D-4E17-8838-AB6171A39FB6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="25993725" y="8048625"/>
+          <a:ext cx="1731743" cy="2114550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>857250</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>2638425</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>186030</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Imagen 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A00EE7-5B25-49F7-9E1D-60E6A85988CB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="26003250" y="10525125"/>
+          <a:ext cx="1781175" cy="2281530"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="CuadroTexto 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FE2476A-FB89-411E-8A98-070E302A37AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28670250" y="7848600"/>
+          <a:ext cx="2581275" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>El "método de áreas" corresponde a </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1400" b="1"/>
+            <a:t> un post procesamiento de la imagen,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1400" b="1" baseline="0"/>
+            <a:t> donde se intenta aislar los espacios que no fueron llenados por sangre (blobs)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="CuadroTexto 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB7BE56-12B5-4D46-B7C2-423FDB8BA06D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="28670250" y="10715625"/>
+          <a:ext cx="2581275" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Los</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-MX" sz="1400" b="1" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> algoritmos de decisión son procesos aislados a los procesamientos de las imágenes, que simplemente obtienen una imagen en blanco y negro y extraen info de ellas (areas)</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-MX" sz="1400" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -18408,7 +18688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G201"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B6"/>
     </sheetView>
   </sheetViews>
@@ -18436,7 +18716,7 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="52" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
@@ -18459,7 +18739,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3"/>
+      <c r="A3" s="52"/>
       <c r="B3" s="1" t="s">
         <v>7</v>
       </c>
@@ -18480,7 +18760,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
+      <c r="A4" s="52"/>
       <c r="B4" s="1" t="s">
         <v>8</v>
       </c>
@@ -18501,7 +18781,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
+      <c r="A5" s="52"/>
       <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
@@ -18519,7 +18799,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
+      <c r="A6" s="52"/>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
@@ -18537,7 +18817,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="1" t="s">
@@ -18560,7 +18840,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
+      <c r="A8" s="52"/>
       <c r="B8" s="1" t="s">
         <v>7</v>
       </c>
@@ -18581,7 +18861,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -18602,7 +18882,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
+      <c r="A10" s="52"/>
       <c r="B10" s="1" t="s">
         <v>9</v>
       </c>
@@ -18620,7 +18900,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
+      <c r="A11" s="52"/>
       <c r="B11" s="1" t="s">
         <v>10</v>
       </c>
@@ -18638,7 +18918,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="1" t="s">
@@ -18661,7 +18941,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="3"/>
+      <c r="A13" s="52"/>
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
@@ -18682,7 +18962,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
+      <c r="A14" s="52"/>
       <c r="B14" s="1" t="s">
         <v>8</v>
       </c>
@@ -18703,7 +18983,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
+      <c r="A15" s="52"/>
       <c r="B15" s="1" t="s">
         <v>9</v>
       </c>
@@ -18721,7 +19001,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="3"/>
+      <c r="A16" s="52"/>
       <c r="B16" s="1" t="s">
         <v>10</v>
       </c>
@@ -18739,7 +19019,7 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="1" t="s">
@@ -18762,7 +19042,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="3"/>
+      <c r="A18" s="52"/>
       <c r="B18" s="1" t="s">
         <v>7</v>
       </c>
@@ -18783,7 +19063,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
+      <c r="A19" s="52"/>
       <c r="B19" s="1" t="s">
         <v>8</v>
       </c>
@@ -18804,7 +19084,7 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="3"/>
+      <c r="A20" s="52"/>
       <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
@@ -18822,7 +19102,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="3"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="1" t="s">
         <v>10</v>
       </c>
@@ -18843,7 +19123,7 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="52" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="1" t="s">
@@ -18866,7 +19146,7 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="3"/>
+      <c r="A23" s="52"/>
       <c r="B23" s="1" t="s">
         <v>7</v>
       </c>
@@ -18887,7 +19167,7 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
+      <c r="A24" s="52"/>
       <c r="B24" s="1" t="s">
         <v>8</v>
       </c>
@@ -18908,7 +19188,7 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="3"/>
+      <c r="A25" s="52"/>
       <c r="B25" s="1" t="s">
         <v>9</v>
       </c>
@@ -18929,7 +19209,7 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
+      <c r="A26" s="52"/>
       <c r="B26" s="1" t="s">
         <v>10</v>
       </c>
@@ -18947,7 +19227,7 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -18970,7 +19250,7 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
+      <c r="A28" s="52"/>
       <c r="B28" s="1" t="s">
         <v>7</v>
       </c>
@@ -18991,7 +19271,7 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="3"/>
+      <c r="A29" s="52"/>
       <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
@@ -19012,7 +19292,7 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="3"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="1" t="s">
         <v>9</v>
       </c>
@@ -19030,7 +19310,7 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
+      <c r="A31" s="52"/>
       <c r="B31" s="1" t="s">
         <v>10</v>
       </c>
@@ -19048,7 +19328,7 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -19071,7 +19351,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
+      <c r="A33" s="52"/>
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
@@ -19092,7 +19372,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
+      <c r="A34" s="52"/>
       <c r="B34" s="1" t="s">
         <v>8</v>
       </c>
@@ -19113,7 +19393,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
+      <c r="A35" s="52"/>
       <c r="B35" s="1" t="s">
         <v>9</v>
       </c>
@@ -19131,7 +19411,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
+      <c r="A36" s="52"/>
       <c r="B36" s="1" t="s">
         <v>10</v>
       </c>
@@ -19149,7 +19429,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -19172,7 +19452,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="52"/>
       <c r="B38" s="1" t="s">
         <v>7</v>
       </c>
@@ -19193,7 +19473,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="3"/>
+      <c r="A39" s="52"/>
       <c r="B39" s="1" t="s">
         <v>8</v>
       </c>
@@ -19214,7 +19494,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
+      <c r="A40" s="52"/>
       <c r="B40" s="1" t="s">
         <v>9</v>
       </c>
@@ -19232,7 +19512,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="3"/>
+      <c r="A41" s="52"/>
       <c r="B41" s="1" t="s">
         <v>10</v>
       </c>
@@ -19250,7 +19530,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="52" t="s">
         <v>2</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -19273,7 +19553,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="3"/>
+      <c r="A43" s="52"/>
       <c r="B43" s="1" t="s">
         <v>7</v>
       </c>
@@ -19294,7 +19574,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
+      <c r="A44" s="52"/>
       <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
@@ -19312,7 +19592,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
+      <c r="A45" s="52"/>
       <c r="B45" s="1" t="s">
         <v>9</v>
       </c>
@@ -19330,7 +19610,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
+      <c r="A46" s="52"/>
       <c r="B46" s="1" t="s">
         <v>10</v>
       </c>
@@ -19348,7 +19628,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -19371,7 +19651,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
+      <c r="A48" s="52"/>
       <c r="B48" s="1" t="s">
         <v>7</v>
       </c>
@@ -19392,7 +19672,7 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="A49" s="52"/>
       <c r="B49" s="1" t="s">
         <v>8</v>
       </c>
@@ -19413,7 +19693,7 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="3"/>
+      <c r="A50" s="52"/>
       <c r="B50" s="1" t="s">
         <v>9</v>
       </c>
@@ -19431,7 +19711,7 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
+      <c r="A51" s="52"/>
       <c r="B51" s="1" t="s">
         <v>10</v>
       </c>
@@ -19449,7 +19729,7 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B52" s="1" t="s">
@@ -19472,7 +19752,7 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
+      <c r="A53" s="52"/>
       <c r="B53" s="1" t="s">
         <v>7</v>
       </c>
@@ -19493,7 +19773,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
+      <c r="A54" s="52"/>
       <c r="B54" s="1" t="s">
         <v>8</v>
       </c>
@@ -19514,7 +19794,7 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
+      <c r="A55" s="52"/>
       <c r="B55" s="1" t="s">
         <v>9</v>
       </c>
@@ -19532,7 +19812,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
+      <c r="A56" s="52"/>
       <c r="B56" s="1" t="s">
         <v>10</v>
       </c>
@@ -19550,7 +19830,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B57" s="1" t="s">
@@ -19573,7 +19853,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="3"/>
+      <c r="A58" s="52"/>
       <c r="B58" s="1" t="s">
         <v>7</v>
       </c>
@@ -19594,7 +19874,7 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
+      <c r="A59" s="52"/>
       <c r="B59" s="1" t="s">
         <v>8</v>
       </c>
@@ -19615,7 +19895,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="3"/>
+      <c r="A60" s="52"/>
       <c r="B60" s="1" t="s">
         <v>9</v>
       </c>
@@ -19633,7 +19913,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="3"/>
+      <c r="A61" s="52"/>
       <c r="B61" s="1" t="s">
         <v>10</v>
       </c>
@@ -19651,7 +19931,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="52" t="s">
         <v>2</v>
       </c>
       <c r="B62" s="1" t="s">
@@ -19674,7 +19954,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
+      <c r="A63" s="52"/>
       <c r="B63" s="1" t="s">
         <v>7</v>
       </c>
@@ -19695,7 +19975,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
+      <c r="A64" s="52"/>
       <c r="B64" s="1" t="s">
         <v>8</v>
       </c>
@@ -19713,7 +19993,7 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
+      <c r="A65" s="52"/>
       <c r="B65" s="1" t="s">
         <v>9</v>
       </c>
@@ -19731,7 +20011,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="3"/>
+      <c r="A66" s="52"/>
       <c r="B66" s="1" t="s">
         <v>10</v>
       </c>
@@ -19749,7 +20029,7 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B67" s="1" t="s">
@@ -19772,7 +20052,7 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="3"/>
+      <c r="A68" s="52"/>
       <c r="B68" s="1" t="s">
         <v>7</v>
       </c>
@@ -19793,7 +20073,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
+      <c r="A69" s="52"/>
       <c r="B69" s="1" t="s">
         <v>8</v>
       </c>
@@ -19814,7 +20094,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="3"/>
+      <c r="A70" s="52"/>
       <c r="B70" s="1" t="s">
         <v>9</v>
       </c>
@@ -19832,7 +20112,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
+      <c r="A71" s="52"/>
       <c r="B71" s="1" t="s">
         <v>10</v>
       </c>
@@ -19850,7 +20130,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B72" s="1" t="s">
@@ -19873,7 +20153,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
+      <c r="A73" s="52"/>
       <c r="B73" s="1" t="s">
         <v>7</v>
       </c>
@@ -19894,7 +20174,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="3"/>
+      <c r="A74" s="52"/>
       <c r="B74" s="1" t="s">
         <v>8</v>
       </c>
@@ -19915,7 +20195,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="3"/>
+      <c r="A75" s="52"/>
       <c r="B75" s="1" t="s">
         <v>9</v>
       </c>
@@ -19933,7 +20213,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
+      <c r="A76" s="52"/>
       <c r="B76" s="1" t="s">
         <v>10</v>
       </c>
@@ -19954,7 +20234,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
+      <c r="A77" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B77" s="1" t="s">
@@ -19977,7 +20257,7 @@
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
+      <c r="A78" s="52"/>
       <c r="B78" s="1" t="s">
         <v>7</v>
       </c>
@@ -19998,7 +20278,7 @@
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
+      <c r="A79" s="52"/>
       <c r="B79" s="1" t="s">
         <v>8</v>
       </c>
@@ -20016,7 +20296,7 @@
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
+      <c r="A80" s="52"/>
       <c r="B80" s="1" t="s">
         <v>9</v>
       </c>
@@ -20034,7 +20314,7 @@
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
+      <c r="A81" s="52"/>
       <c r="B81" s="1" t="s">
         <v>10</v>
       </c>
@@ -20052,7 +20332,7 @@
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="3" t="s">
+      <c r="A82" s="52" t="s">
         <v>2</v>
       </c>
       <c r="B82" s="1" t="s">
@@ -20075,7 +20355,7 @@
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
+      <c r="A83" s="52"/>
       <c r="B83" s="1" t="s">
         <v>7</v>
       </c>
@@ -20096,7 +20376,7 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
+      <c r="A84" s="52"/>
       <c r="B84" s="1" t="s">
         <v>8</v>
       </c>
@@ -20117,7 +20397,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
+      <c r="A85" s="52"/>
       <c r="B85" s="1" t="s">
         <v>9</v>
       </c>
@@ -20135,7 +20415,7 @@
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
+      <c r="A86" s="52"/>
       <c r="B86" s="1" t="s">
         <v>10</v>
       </c>
@@ -20153,7 +20433,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="3" t="s">
+      <c r="A87" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B87" s="1" t="s">
@@ -20176,7 +20456,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
+      <c r="A88" s="52"/>
       <c r="B88" s="1" t="s">
         <v>7</v>
       </c>
@@ -20197,7 +20477,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
+      <c r="A89" s="52"/>
       <c r="B89" s="1" t="s">
         <v>8</v>
       </c>
@@ -20218,7 +20498,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
+      <c r="A90" s="52"/>
       <c r="B90" s="1" t="s">
         <v>9</v>
       </c>
@@ -20236,7 +20516,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
+      <c r="A91" s="52"/>
       <c r="B91" s="1" t="s">
         <v>10</v>
       </c>
@@ -20257,7 +20537,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="3" t="s">
+      <c r="A92" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B92" s="1" t="s">
@@ -20280,7 +20560,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
+      <c r="A93" s="52"/>
       <c r="B93" s="1" t="s">
         <v>7</v>
       </c>
@@ -20301,7 +20581,7 @@
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
+      <c r="A94" s="52"/>
       <c r="B94" s="1" t="s">
         <v>8</v>
       </c>
@@ -20322,7 +20602,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
+      <c r="A95" s="52"/>
       <c r="B95" s="1" t="s">
         <v>9</v>
       </c>
@@ -20340,7 +20620,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
+      <c r="A96" s="52"/>
       <c r="B96" s="1" t="s">
         <v>10</v>
       </c>
@@ -20361,7 +20641,7 @@
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="3" t="s">
+      <c r="A97" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B97" s="1" t="s">
@@ -20384,7 +20664,7 @@
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
+      <c r="A98" s="52"/>
       <c r="B98" s="1" t="s">
         <v>7</v>
       </c>
@@ -20405,7 +20685,7 @@
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
+      <c r="A99" s="52"/>
       <c r="B99" s="1" t="s">
         <v>8</v>
       </c>
@@ -20426,7 +20706,7 @@
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
+      <c r="A100" s="52"/>
       <c r="B100" s="1" t="s">
         <v>9</v>
       </c>
@@ -20444,7 +20724,7 @@
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
+      <c r="A101" s="52"/>
       <c r="B101" s="1" t="s">
         <v>10</v>
       </c>
@@ -20462,7 +20742,7 @@
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="3" t="s">
+      <c r="A102" s="52" t="s">
         <v>2</v>
       </c>
       <c r="B102" s="1" t="s">
@@ -20485,7 +20765,7 @@
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
+      <c r="A103" s="52"/>
       <c r="B103" s="1" t="s">
         <v>7</v>
       </c>
@@ -20506,7 +20786,7 @@
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
+      <c r="A104" s="52"/>
       <c r="B104" s="1" t="s">
         <v>8</v>
       </c>
@@ -20524,7 +20804,7 @@
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
+      <c r="A105" s="52"/>
       <c r="B105" s="1" t="s">
         <v>9</v>
       </c>
@@ -20542,7 +20822,7 @@
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
+      <c r="A106" s="52"/>
       <c r="B106" s="1" t="s">
         <v>10</v>
       </c>
@@ -20560,7 +20840,7 @@
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="3" t="s">
+      <c r="A107" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B107" s="1" t="s">
@@ -20583,7 +20863,7 @@
       </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
+      <c r="A108" s="52"/>
       <c r="B108" s="1" t="s">
         <v>7</v>
       </c>
@@ -20604,7 +20884,7 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
+      <c r="A109" s="52"/>
       <c r="B109" s="1" t="s">
         <v>8</v>
       </c>
@@ -20622,7 +20902,7 @@
       </c>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
+      <c r="A110" s="52"/>
       <c r="B110" s="1" t="s">
         <v>9</v>
       </c>
@@ -20640,7 +20920,7 @@
       </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
+      <c r="A111" s="52"/>
       <c r="B111" s="1" t="s">
         <v>10</v>
       </c>
@@ -20658,7 +20938,7 @@
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="3" t="s">
+      <c r="A112" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B112" s="1" t="s">
@@ -20681,7 +20961,7 @@
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
+      <c r="A113" s="52"/>
       <c r="B113" s="1" t="s">
         <v>7</v>
       </c>
@@ -20702,7 +20982,7 @@
       </c>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
+      <c r="A114" s="52"/>
       <c r="B114" s="1" t="s">
         <v>8</v>
       </c>
@@ -20723,7 +21003,7 @@
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
+      <c r="A115" s="52"/>
       <c r="B115" s="1" t="s">
         <v>9</v>
       </c>
@@ -20741,7 +21021,7 @@
       </c>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
+      <c r="A116" s="52"/>
       <c r="B116" s="1" t="s">
         <v>10</v>
       </c>
@@ -20762,7 +21042,7 @@
       </c>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="3" t="s">
+      <c r="A117" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B117" s="1" t="s">
@@ -20785,7 +21065,7 @@
       </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="3"/>
+      <c r="A118" s="52"/>
       <c r="B118" s="1" t="s">
         <v>7</v>
       </c>
@@ -20806,7 +21086,7 @@
       </c>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
+      <c r="A119" s="52"/>
       <c r="B119" s="1" t="s">
         <v>8</v>
       </c>
@@ -20827,7 +21107,7 @@
       </c>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
+      <c r="A120" s="52"/>
       <c r="B120" s="1" t="s">
         <v>9</v>
       </c>
@@ -20845,7 +21125,7 @@
       </c>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
+      <c r="A121" s="52"/>
       <c r="B121" s="1" t="s">
         <v>10</v>
       </c>
@@ -20866,7 +21146,7 @@
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="3" t="s">
+      <c r="A122" s="52" t="s">
         <v>2</v>
       </c>
       <c r="B122" s="1" t="s">
@@ -20889,7 +21169,7 @@
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
+      <c r="A123" s="52"/>
       <c r="B123" s="1" t="s">
         <v>7</v>
       </c>
@@ -20910,7 +21190,7 @@
       </c>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
+      <c r="A124" s="52"/>
       <c r="B124" s="1" t="s">
         <v>8</v>
       </c>
@@ -20928,7 +21208,7 @@
       </c>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
+      <c r="A125" s="52"/>
       <c r="B125" s="1" t="s">
         <v>9</v>
       </c>
@@ -20946,7 +21226,7 @@
       </c>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
+      <c r="A126" s="52"/>
       <c r="B126" s="1" t="s">
         <v>10</v>
       </c>
@@ -20964,7 +21244,7 @@
       </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="3" t="s">
+      <c r="A127" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B127" s="1" t="s">
@@ -20987,7 +21267,7 @@
       </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
+      <c r="A128" s="52"/>
       <c r="B128" s="1" t="s">
         <v>7</v>
       </c>
@@ -21008,7 +21288,7 @@
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
+      <c r="A129" s="52"/>
       <c r="B129" s="1" t="s">
         <v>8</v>
       </c>
@@ -21029,7 +21309,7 @@
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
+      <c r="A130" s="52"/>
       <c r="B130" s="1" t="s">
         <v>9</v>
       </c>
@@ -21047,7 +21327,7 @@
       </c>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
+      <c r="A131" s="52"/>
       <c r="B131" s="1" t="s">
         <v>10</v>
       </c>
@@ -21065,7 +21345,7 @@
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="3" t="s">
+      <c r="A132" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B132" s="1" t="s">
@@ -21088,7 +21368,7 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
+      <c r="A133" s="52"/>
       <c r="B133" s="1" t="s">
         <v>7</v>
       </c>
@@ -21109,7 +21389,7 @@
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
+      <c r="A134" s="52"/>
       <c r="B134" s="1" t="s">
         <v>8</v>
       </c>
@@ -21130,7 +21410,7 @@
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
+      <c r="A135" s="52"/>
       <c r="B135" s="1" t="s">
         <v>9</v>
       </c>
@@ -21151,7 +21431,7 @@
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
+      <c r="A136" s="52"/>
       <c r="B136" s="1" t="s">
         <v>10</v>
       </c>
@@ -21169,7 +21449,7 @@
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B137" s="1" t="s">
@@ -21192,7 +21472,7 @@
       </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
+      <c r="A138" s="52"/>
       <c r="B138" s="1" t="s">
         <v>7</v>
       </c>
@@ -21213,7 +21493,7 @@
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
+      <c r="A139" s="52"/>
       <c r="B139" s="1" t="s">
         <v>8</v>
       </c>
@@ -21231,7 +21511,7 @@
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
+      <c r="A140" s="52"/>
       <c r="B140" s="1" t="s">
         <v>9</v>
       </c>
@@ -21249,7 +21529,7 @@
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
+      <c r="A141" s="52"/>
       <c r="B141" s="1" t="s">
         <v>10</v>
       </c>
@@ -21267,7 +21547,7 @@
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="52" t="s">
         <v>2</v>
       </c>
       <c r="B142" s="1" t="s">
@@ -21290,7 +21570,7 @@
       </c>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
+      <c r="A143" s="52"/>
       <c r="B143" s="1" t="s">
         <v>7</v>
       </c>
@@ -21311,7 +21591,7 @@
       </c>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
+      <c r="A144" s="52"/>
       <c r="B144" s="1" t="s">
         <v>8</v>
       </c>
@@ -21332,7 +21612,7 @@
       </c>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
+      <c r="A145" s="52"/>
       <c r="B145" s="1" t="s">
         <v>9</v>
       </c>
@@ -21350,7 +21630,7 @@
       </c>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
+      <c r="A146" s="52"/>
       <c r="B146" s="1" t="s">
         <v>10</v>
       </c>
@@ -21368,7 +21648,7 @@
       </c>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="3" t="s">
+      <c r="A147" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B147" s="1" t="s">
@@ -21391,7 +21671,7 @@
       </c>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
+      <c r="A148" s="52"/>
       <c r="B148" s="1" t="s">
         <v>7</v>
       </c>
@@ -21412,7 +21692,7 @@
       </c>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
+      <c r="A149" s="52"/>
       <c r="B149" s="1" t="s">
         <v>8</v>
       </c>
@@ -21433,7 +21713,7 @@
       </c>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="3"/>
+      <c r="A150" s="52"/>
       <c r="B150" s="1" t="s">
         <v>9</v>
       </c>
@@ -21451,7 +21731,7 @@
       </c>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="3"/>
+      <c r="A151" s="52"/>
       <c r="B151" s="1" t="s">
         <v>10</v>
       </c>
@@ -21472,7 +21752,7 @@
       </c>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="3" t="s">
+      <c r="A152" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B152" s="1" t="s">
@@ -21495,7 +21775,7 @@
       </c>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="3"/>
+      <c r="A153" s="52"/>
       <c r="B153" s="1" t="s">
         <v>7</v>
       </c>
@@ -21516,7 +21796,7 @@
       </c>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
+      <c r="A154" s="52"/>
       <c r="B154" s="1" t="s">
         <v>8</v>
       </c>
@@ -21537,7 +21817,7 @@
       </c>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
+      <c r="A155" s="52"/>
       <c r="B155" s="1" t="s">
         <v>9</v>
       </c>
@@ -21555,7 +21835,7 @@
       </c>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
+      <c r="A156" s="52"/>
       <c r="B156" s="1" t="s">
         <v>10</v>
       </c>
@@ -21576,7 +21856,7 @@
       </c>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="A157" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B157" s="1" t="s">
@@ -21599,7 +21879,7 @@
       </c>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
+      <c r="A158" s="52"/>
       <c r="B158" s="1" t="s">
         <v>7</v>
       </c>
@@ -21620,7 +21900,7 @@
       </c>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="3"/>
+      <c r="A159" s="52"/>
       <c r="B159" s="1" t="s">
         <v>8</v>
       </c>
@@ -21641,7 +21921,7 @@
       </c>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
+      <c r="A160" s="52"/>
       <c r="B160" s="1" t="s">
         <v>9</v>
       </c>
@@ -21659,7 +21939,7 @@
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
+      <c r="A161" s="52"/>
       <c r="B161" s="1" t="s">
         <v>10</v>
       </c>
@@ -21677,7 +21957,7 @@
       </c>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="3" t="s">
+      <c r="A162" s="52" t="s">
         <v>2</v>
       </c>
       <c r="B162" s="1" t="s">
@@ -21700,7 +21980,7 @@
       </c>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="3"/>
+      <c r="A163" s="52"/>
       <c r="B163" s="1" t="s">
         <v>7</v>
       </c>
@@ -21721,7 +22001,7 @@
       </c>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
+      <c r="A164" s="52"/>
       <c r="B164" s="1" t="s">
         <v>8</v>
       </c>
@@ -21739,7 +22019,7 @@
       </c>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="3"/>
+      <c r="A165" s="52"/>
       <c r="B165" s="1" t="s">
         <v>9</v>
       </c>
@@ -21757,7 +22037,7 @@
       </c>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="3"/>
+      <c r="A166" s="52"/>
       <c r="B166" s="1" t="s">
         <v>10</v>
       </c>
@@ -21775,7 +22055,7 @@
       </c>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="3" t="s">
+      <c r="A167" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B167" s="1" t="s">
@@ -21798,7 +22078,7 @@
       </c>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
+      <c r="A168" s="52"/>
       <c r="B168" s="1" t="s">
         <v>7</v>
       </c>
@@ -21819,7 +22099,7 @@
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="3"/>
+      <c r="A169" s="52"/>
       <c r="B169" s="1" t="s">
         <v>8</v>
       </c>
@@ -21840,7 +22120,7 @@
       </c>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="3"/>
+      <c r="A170" s="52"/>
       <c r="B170" s="1" t="s">
         <v>9</v>
       </c>
@@ -21858,7 +22138,7 @@
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="3"/>
+      <c r="A171" s="52"/>
       <c r="B171" s="1" t="s">
         <v>10</v>
       </c>
@@ -21876,7 +22156,7 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="3" t="s">
+      <c r="A172" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B172" s="1" t="s">
@@ -21899,7 +22179,7 @@
       </c>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="3"/>
+      <c r="A173" s="52"/>
       <c r="B173" s="1" t="s">
         <v>7</v>
       </c>
@@ -21920,7 +22200,7 @@
       </c>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="3"/>
+      <c r="A174" s="52"/>
       <c r="B174" s="1" t="s">
         <v>8</v>
       </c>
@@ -21941,7 +22221,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="3"/>
+      <c r="A175" s="52"/>
       <c r="B175" s="1" t="s">
         <v>9</v>
       </c>
@@ -21959,7 +22239,7 @@
       </c>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="3"/>
+      <c r="A176" s="52"/>
       <c r="B176" s="1" t="s">
         <v>10</v>
       </c>
@@ -21977,7 +22257,7 @@
       </c>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="3" t="s">
+      <c r="A177" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B177" s="1" t="s">
@@ -22000,7 +22280,7 @@
       </c>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="3"/>
+      <c r="A178" s="52"/>
       <c r="B178" s="1" t="s">
         <v>7</v>
       </c>
@@ -22021,7 +22301,7 @@
       </c>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="3"/>
+      <c r="A179" s="52"/>
       <c r="B179" s="1" t="s">
         <v>8</v>
       </c>
@@ -22042,7 +22322,7 @@
       </c>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="3"/>
+      <c r="A180" s="52"/>
       <c r="B180" s="1" t="s">
         <v>9</v>
       </c>
@@ -22060,7 +22340,7 @@
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="3"/>
+      <c r="A181" s="52"/>
       <c r="B181" s="1" t="s">
         <v>10</v>
       </c>
@@ -22078,7 +22358,7 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="3" t="s">
+      <c r="A182" s="52" t="s">
         <v>2</v>
       </c>
       <c r="B182" s="1" t="s">
@@ -22101,7 +22381,7 @@
       </c>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="3"/>
+      <c r="A183" s="52"/>
       <c r="B183" s="1" t="s">
         <v>7</v>
       </c>
@@ -22122,7 +22402,7 @@
       </c>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="3"/>
+      <c r="A184" s="52"/>
       <c r="B184" s="1" t="s">
         <v>8</v>
       </c>
@@ -22140,7 +22420,7 @@
       </c>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="3"/>
+      <c r="A185" s="52"/>
       <c r="B185" s="1" t="s">
         <v>9</v>
       </c>
@@ -22158,7 +22438,7 @@
       </c>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
+      <c r="A186" s="52"/>
       <c r="B186" s="1" t="s">
         <v>10</v>
       </c>
@@ -22176,7 +22456,7 @@
       </c>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="3" t="s">
+      <c r="A187" s="52" t="s">
         <v>3</v>
       </c>
       <c r="B187" s="1" t="s">
@@ -22199,7 +22479,7 @@
       </c>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="3"/>
+      <c r="A188" s="52"/>
       <c r="B188" s="1" t="s">
         <v>7</v>
       </c>
@@ -22220,7 +22500,7 @@
       </c>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="3"/>
+      <c r="A189" s="52"/>
       <c r="B189" s="1" t="s">
         <v>8</v>
       </c>
@@ -22241,7 +22521,7 @@
       </c>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="3"/>
+      <c r="A190" s="52"/>
       <c r="B190" s="1" t="s">
         <v>9</v>
       </c>
@@ -22262,7 +22542,7 @@
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="3"/>
+      <c r="A191" s="52"/>
       <c r="B191" s="1" t="s">
         <v>10</v>
       </c>
@@ -22283,7 +22563,7 @@
       </c>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="3" t="s">
+      <c r="A192" s="52" t="s">
         <v>4</v>
       </c>
       <c r="B192" s="1" t="s">
@@ -22306,7 +22586,7 @@
       </c>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="3"/>
+      <c r="A193" s="52"/>
       <c r="B193" s="1" t="s">
         <v>7</v>
       </c>
@@ -22327,7 +22607,7 @@
       </c>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="3"/>
+      <c r="A194" s="52"/>
       <c r="B194" s="1" t="s">
         <v>8</v>
       </c>
@@ -22348,7 +22628,7 @@
       </c>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="3"/>
+      <c r="A195" s="52"/>
       <c r="B195" s="1" t="s">
         <v>9</v>
       </c>
@@ -22366,7 +22646,7 @@
       </c>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="3"/>
+      <c r="A196" s="52"/>
       <c r="B196" s="1" t="s">
         <v>10</v>
       </c>
@@ -22387,7 +22667,7 @@
       </c>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="3" t="s">
+      <c r="A197" s="52" t="s">
         <v>5</v>
       </c>
       <c r="B197" s="1" t="s">
@@ -22410,7 +22690,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="3"/>
+      <c r="A198" s="52"/>
       <c r="B198" s="1" t="s">
         <v>7</v>
       </c>
@@ -22431,7 +22711,7 @@
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="3"/>
+      <c r="A199" s="52"/>
       <c r="B199" s="1" t="s">
         <v>8</v>
       </c>
@@ -22452,7 +22732,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="3"/>
+      <c r="A200" s="52"/>
       <c r="B200" s="1" t="s">
         <v>9</v>
       </c>
@@ -22470,7 +22750,7 @@
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="3"/>
+      <c r="A201" s="52"/>
       <c r="B201" s="1" t="s">
         <v>10</v>
       </c>
@@ -22492,46 +22772,46 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="A177:A181"/>
+    <mergeCell ref="A182:A186"/>
+    <mergeCell ref="A187:A191"/>
+    <mergeCell ref="A192:A196"/>
+    <mergeCell ref="A197:A201"/>
+    <mergeCell ref="A152:A156"/>
+    <mergeCell ref="A157:A161"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="A167:A171"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="A132:A136"/>
+    <mergeCell ref="A137:A141"/>
+    <mergeCell ref="A142:A146"/>
+    <mergeCell ref="A147:A151"/>
+    <mergeCell ref="A102:A106"/>
+    <mergeCell ref="A107:A111"/>
+    <mergeCell ref="A112:A116"/>
+    <mergeCell ref="A117:A121"/>
+    <mergeCell ref="A122:A126"/>
+    <mergeCell ref="A77:A81"/>
+    <mergeCell ref="A82:A86"/>
+    <mergeCell ref="A87:A91"/>
+    <mergeCell ref="A92:A96"/>
+    <mergeCell ref="A97:A101"/>
+    <mergeCell ref="A52:A56"/>
+    <mergeCell ref="A57:A61"/>
+    <mergeCell ref="A62:A66"/>
+    <mergeCell ref="A67:A71"/>
+    <mergeCell ref="A72:A76"/>
+    <mergeCell ref="A27:A31"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A37:A41"/>
+    <mergeCell ref="A42:A46"/>
+    <mergeCell ref="A47:A51"/>
     <mergeCell ref="A2:A6"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A17:A21"/>
     <mergeCell ref="A22:A26"/>
-    <mergeCell ref="A27:A31"/>
-    <mergeCell ref="A32:A36"/>
-    <mergeCell ref="A37:A41"/>
-    <mergeCell ref="A42:A46"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A52:A56"/>
-    <mergeCell ref="A57:A61"/>
-    <mergeCell ref="A62:A66"/>
-    <mergeCell ref="A67:A71"/>
-    <mergeCell ref="A72:A76"/>
-    <mergeCell ref="A77:A81"/>
-    <mergeCell ref="A82:A86"/>
-    <mergeCell ref="A87:A91"/>
-    <mergeCell ref="A92:A96"/>
-    <mergeCell ref="A97:A101"/>
-    <mergeCell ref="A102:A106"/>
-    <mergeCell ref="A107:A111"/>
-    <mergeCell ref="A112:A116"/>
-    <mergeCell ref="A117:A121"/>
-    <mergeCell ref="A122:A126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="A132:A136"/>
-    <mergeCell ref="A137:A141"/>
-    <mergeCell ref="A142:A146"/>
-    <mergeCell ref="A147:A151"/>
-    <mergeCell ref="A152:A156"/>
-    <mergeCell ref="A157:A161"/>
-    <mergeCell ref="A162:A166"/>
-    <mergeCell ref="A167:A171"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="A177:A181"/>
-    <mergeCell ref="A182:A186"/>
-    <mergeCell ref="A187:A191"/>
-    <mergeCell ref="A192:A196"/>
-    <mergeCell ref="A197:A201"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -22542,8 +22822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{683CF8E4-4385-4E2F-849E-210A629BFDD6}">
   <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22:B37"/>
+    <sheetView tabSelected="1" topLeftCell="T34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD62" sqref="AD62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22553,4022 +22833,4023 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="C1" s="23">
+      <c r="C1" s="59">
         <v>1</v>
       </c>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23">
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59">
         <v>2</v>
       </c>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23">
+      <c r="G1" s="59"/>
+      <c r="H1" s="59"/>
+      <c r="I1" s="59">
         <v>3</v>
       </c>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23">
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
+      <c r="L1" s="59">
         <v>4</v>
       </c>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23">
+      <c r="M1" s="59"/>
+      <c r="N1" s="59"/>
+      <c r="O1" s="59">
         <v>5</v>
       </c>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23">
+      <c r="P1" s="59"/>
+      <c r="Q1" s="59"/>
+      <c r="R1" s="59">
         <v>6</v>
       </c>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23">
+      <c r="S1" s="59"/>
+      <c r="T1" s="59"/>
+      <c r="U1" s="59">
         <v>7</v>
       </c>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23">
+      <c r="V1" s="59"/>
+      <c r="W1" s="59"/>
+      <c r="X1" s="59">
         <v>8</v>
       </c>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23">
+      <c r="Y1" s="59"/>
+      <c r="Z1" s="59"/>
+      <c r="AA1" s="59">
         <v>9</v>
       </c>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23">
+      <c r="AB1" s="59"/>
+      <c r="AC1" s="59"/>
+      <c r="AD1" s="59">
         <v>10</v>
       </c>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
-      <c r="AH1" s="31" t="s">
+      <c r="AE1" s="59"/>
+      <c r="AF1" s="59"/>
+      <c r="AH1" s="26" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="53" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>4.43</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>4.0599999999999996</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>3.96</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="5">
         <v>10.91</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="6">
         <v>11.52</v>
       </c>
-      <c r="H2" s="8">
+      <c r="H2" s="7">
         <v>10.39</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>2.58</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>2.86</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <v>3.34</v>
       </c>
-      <c r="L2" s="6">
+      <c r="L2" s="5">
         <v>2.86</v>
       </c>
-      <c r="M2" s="7">
+      <c r="M2" s="6">
         <v>4.38</v>
       </c>
-      <c r="N2" s="8">
+      <c r="N2" s="7">
         <v>4.5999999999999996</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <v>1.29</v>
       </c>
-      <c r="P2" s="5">
+      <c r="P2" s="4">
         <v>0.82</v>
       </c>
-      <c r="Q2" s="5">
+      <c r="Q2" s="4">
         <v>1.92</v>
       </c>
-      <c r="R2" s="6">
+      <c r="R2" s="5">
         <v>2.16</v>
       </c>
-      <c r="S2" s="7">
+      <c r="S2" s="6">
         <v>1.73</v>
       </c>
-      <c r="T2" s="8">
+      <c r="T2" s="7">
         <v>3.84</v>
       </c>
-      <c r="U2" s="5">
+      <c r="U2" s="4">
         <v>3.77</v>
       </c>
-      <c r="V2" s="5">
+      <c r="V2" s="4">
         <v>1.29</v>
       </c>
-      <c r="W2" s="5">
+      <c r="W2" s="4">
         <v>3.96</v>
       </c>
-      <c r="X2" s="6">
+      <c r="X2" s="5">
         <v>3.96</v>
       </c>
-      <c r="Y2" s="7">
+      <c r="Y2" s="6">
         <v>5.04</v>
       </c>
-      <c r="Z2" s="8">
+      <c r="Z2" s="7">
         <v>3.11</v>
       </c>
-      <c r="AA2" s="5">
+      <c r="AA2" s="4">
         <v>0.43</v>
       </c>
-      <c r="AB2" s="5">
+      <c r="AB2" s="4">
         <v>1.5</v>
       </c>
-      <c r="AC2" s="9">
+      <c r="AC2" s="8">
         <v>2.91</v>
       </c>
-      <c r="AD2" s="6">
+      <c r="AD2" s="5">
         <v>2.59</v>
       </c>
-      <c r="AE2" s="7">
+      <c r="AE2" s="6">
         <v>2.87</v>
       </c>
-      <c r="AF2" s="8">
+      <c r="AF2" s="7">
         <v>3.76</v>
       </c>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="25"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="9">
         <v>62.75</v>
       </c>
-      <c r="D3" s="11">
+      <c r="D3" s="10">
         <v>65</v>
       </c>
-      <c r="E3" s="11">
+      <c r="E3" s="10">
         <v>62.75</v>
       </c>
-      <c r="F3" s="12">
+      <c r="F3" s="11">
         <v>49.75</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="12">
         <v>54.5</v>
       </c>
-      <c r="H3" s="14">
+      <c r="H3" s="13">
         <v>51</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="10">
         <v>62.25</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>66.75</v>
       </c>
-      <c r="K3" s="11">
+      <c r="K3" s="10">
         <v>64.25</v>
       </c>
-      <c r="L3" s="12">
+      <c r="L3" s="11">
         <v>56.25</v>
       </c>
-      <c r="M3" s="13">
+      <c r="M3" s="12">
         <v>57.5</v>
       </c>
-      <c r="N3" s="14">
+      <c r="N3" s="13">
         <v>60.75</v>
       </c>
-      <c r="O3" s="11">
+      <c r="O3" s="10">
         <v>62.25</v>
       </c>
-      <c r="P3" s="11">
+      <c r="P3" s="10">
         <v>66.25</v>
       </c>
-      <c r="Q3" s="11">
+      <c r="Q3" s="10">
         <v>59.25</v>
       </c>
-      <c r="R3" s="12">
+      <c r="R3" s="11">
         <v>60.75</v>
       </c>
-      <c r="S3" s="13">
+      <c r="S3" s="12">
         <v>58</v>
       </c>
-      <c r="T3" s="14">
+      <c r="T3" s="13">
         <v>58.5</v>
       </c>
-      <c r="U3" s="11">
+      <c r="U3" s="10">
         <v>63.5</v>
       </c>
-      <c r="V3" s="11">
+      <c r="V3" s="10">
         <v>60.25</v>
       </c>
-      <c r="W3" s="11">
+      <c r="W3" s="10">
         <v>65.25</v>
       </c>
-      <c r="X3" s="12">
+      <c r="X3" s="11">
         <v>61.25</v>
       </c>
-      <c r="Y3" s="13">
+      <c r="Y3" s="12">
         <v>64</v>
       </c>
-      <c r="Z3" s="14">
+      <c r="Z3" s="13">
         <v>61</v>
       </c>
-      <c r="AA3" s="11">
+      <c r="AA3" s="10">
         <v>59.75</v>
       </c>
-      <c r="AB3" s="11">
+      <c r="AB3" s="10">
         <v>58.5</v>
       </c>
-      <c r="AC3" s="15">
+      <c r="AC3" s="14">
         <v>60</v>
       </c>
-      <c r="AD3" s="12">
+      <c r="AD3" s="11">
         <v>62.5</v>
       </c>
-      <c r="AE3" s="13">
+      <c r="AE3" s="12">
         <v>63.5</v>
       </c>
-      <c r="AF3" s="14">
+      <c r="AF3" s="13">
         <v>61.75</v>
       </c>
     </row>
     <row r="4" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A4" s="25"/>
-      <c r="B4" s="27" t="s">
+      <c r="A4" s="54"/>
+      <c r="B4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="23">
         <v>4.26</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="24">
         <v>3.21</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="24">
         <v>3.21</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="23">
         <v>15.82</v>
       </c>
-      <c r="G4" s="29">
+      <c r="G4" s="24">
         <v>15.04</v>
       </c>
-      <c r="H4" s="30">
+      <c r="H4" s="25">
         <v>15.13</v>
       </c>
-      <c r="I4" s="29">
-        <v>0</v>
-      </c>
-      <c r="J4" s="29">
-        <v>0</v>
-      </c>
-      <c r="K4" s="29">
-        <v>0</v>
-      </c>
-      <c r="L4" s="28">
+      <c r="I4" s="24">
+        <v>0</v>
+      </c>
+      <c r="J4" s="24">
+        <v>0</v>
+      </c>
+      <c r="K4" s="24">
+        <v>0</v>
+      </c>
+      <c r="L4" s="23">
         <v>1.3</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="24">
         <v>1.82</v>
       </c>
-      <c r="N4" s="30">
+      <c r="N4" s="25">
         <v>0.35</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="24">
         <v>0.26</v>
       </c>
-      <c r="P4" s="29">
+      <c r="P4" s="24">
         <v>0.34</v>
       </c>
-      <c r="Q4" s="29">
+      <c r="Q4" s="24">
         <v>0.52</v>
       </c>
-      <c r="R4" s="28">
+      <c r="R4" s="23">
         <v>0.17</v>
       </c>
-      <c r="S4" s="29">
-        <v>0</v>
-      </c>
-      <c r="T4" s="30">
+      <c r="S4" s="24">
+        <v>0</v>
+      </c>
+      <c r="T4" s="25">
         <v>0.26</v>
       </c>
-      <c r="U4" s="29">
-        <v>0</v>
-      </c>
-      <c r="V4" s="29">
+      <c r="U4" s="24">
+        <v>0</v>
+      </c>
+      <c r="V4" s="24">
         <v>0.08</v>
       </c>
-      <c r="W4" s="29">
+      <c r="W4" s="24">
         <v>0.17</v>
       </c>
-      <c r="X4" s="28">
+      <c r="X4" s="23">
         <v>8.9499999999999993</v>
       </c>
-      <c r="Y4" s="29">
+      <c r="Y4" s="24">
         <v>9.65</v>
       </c>
-      <c r="Z4" s="30">
+      <c r="Z4" s="25">
         <v>8.9499999999999993</v>
       </c>
-      <c r="AA4" s="29">
+      <c r="AA4" s="24">
         <v>1.21</v>
       </c>
-      <c r="AB4" s="29">
+      <c r="AB4" s="24">
         <v>1.73</v>
       </c>
-      <c r="AC4" s="30">
+      <c r="AC4" s="25">
         <v>0.95</v>
       </c>
-      <c r="AD4" s="28">
+      <c r="AD4" s="23">
         <v>0.86</v>
       </c>
-      <c r="AE4" s="29">
+      <c r="AE4" s="24">
         <v>1.21</v>
       </c>
-      <c r="AF4" s="30">
+      <c r="AF4" s="25">
         <v>0.78</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="25"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="10">
-        <v>0</v>
-      </c>
-      <c r="D5" s="11">
-        <v>0</v>
-      </c>
-      <c r="E5" s="11">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="C5" s="9">
+        <v>0</v>
+      </c>
+      <c r="D5" s="10">
+        <v>0</v>
+      </c>
+      <c r="E5" s="10">
+        <v>0</v>
+      </c>
+      <c r="F5" s="11">
         <v>1</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="12">
         <v>1</v>
       </c>
-      <c r="H5" s="14">
+      <c r="H5" s="13">
         <v>1</v>
       </c>
-      <c r="I5" s="11">
-        <v>0</v>
-      </c>
-      <c r="J5" s="11">
-        <v>0</v>
-      </c>
-      <c r="K5" s="11">
-        <v>0</v>
-      </c>
-      <c r="L5" s="12">
-        <v>0</v>
-      </c>
-      <c r="M5" s="13">
-        <v>0</v>
-      </c>
-      <c r="N5" s="14">
-        <v>0</v>
-      </c>
-      <c r="O5" s="11">
-        <v>0</v>
-      </c>
-      <c r="P5" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="11">
-        <v>0</v>
-      </c>
-      <c r="R5" s="12">
-        <v>0</v>
-      </c>
-      <c r="S5" s="13">
-        <v>0</v>
-      </c>
-      <c r="T5" s="14">
-        <v>0</v>
-      </c>
-      <c r="U5" s="11">
-        <v>0</v>
-      </c>
-      <c r="V5" s="11">
-        <v>0</v>
-      </c>
-      <c r="W5" s="11">
-        <v>0</v>
-      </c>
-      <c r="X5" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="14">
+      <c r="I5" s="10">
+        <v>0</v>
+      </c>
+      <c r="J5" s="10">
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0</v>
+      </c>
+      <c r="L5" s="11">
+        <v>0</v>
+      </c>
+      <c r="M5" s="12">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+      <c r="O5" s="10">
+        <v>0</v>
+      </c>
+      <c r="P5" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0</v>
+      </c>
+      <c r="R5" s="11">
+        <v>0</v>
+      </c>
+      <c r="S5" s="12">
+        <v>0</v>
+      </c>
+      <c r="T5" s="13">
+        <v>0</v>
+      </c>
+      <c r="U5" s="10">
+        <v>0</v>
+      </c>
+      <c r="V5" s="10">
+        <v>0</v>
+      </c>
+      <c r="W5" s="10">
+        <v>0</v>
+      </c>
+      <c r="X5" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="25"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="16">
-        <v>0</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="18">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19">
-        <v>0</v>
-      </c>
-      <c r="H6" s="20">
-        <v>0</v>
-      </c>
-      <c r="I6" s="17">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17">
-        <v>0</v>
-      </c>
-      <c r="K6" s="17">
-        <v>0</v>
-      </c>
-      <c r="L6" s="18">
-        <v>0</v>
-      </c>
-      <c r="M6" s="19">
-        <v>0</v>
-      </c>
-      <c r="N6" s="20">
-        <v>0</v>
-      </c>
-      <c r="O6" s="17">
-        <v>0</v>
-      </c>
-      <c r="P6" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>0</v>
-      </c>
-      <c r="R6" s="18">
-        <v>0</v>
-      </c>
-      <c r="S6" s="19">
-        <v>0</v>
-      </c>
-      <c r="T6" s="20">
-        <v>0</v>
-      </c>
-      <c r="U6" s="17">
-        <v>0</v>
-      </c>
-      <c r="V6" s="17">
-        <v>0</v>
-      </c>
-      <c r="W6" s="17">
-        <v>0</v>
-      </c>
-      <c r="X6" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="19">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="20">
+      <c r="C6" s="15">
+        <v>0</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0</v>
+      </c>
+      <c r="G6" s="18">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="16">
+        <v>0</v>
+      </c>
+      <c r="J6" s="16">
+        <v>0</v>
+      </c>
+      <c r="K6" s="16">
+        <v>0</v>
+      </c>
+      <c r="L6" s="17">
+        <v>0</v>
+      </c>
+      <c r="M6" s="18">
+        <v>0</v>
+      </c>
+      <c r="N6" s="19">
+        <v>0</v>
+      </c>
+      <c r="O6" s="16">
+        <v>0</v>
+      </c>
+      <c r="P6" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>0</v>
+      </c>
+      <c r="R6" s="17">
+        <v>0</v>
+      </c>
+      <c r="S6" s="18">
+        <v>0</v>
+      </c>
+      <c r="T6" s="19">
+        <v>0</v>
+      </c>
+      <c r="U6" s="16">
+        <v>0</v>
+      </c>
+      <c r="V6" s="16">
+        <v>0</v>
+      </c>
+      <c r="W6" s="16">
+        <v>0</v>
+      </c>
+      <c r="X6" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="18">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="19">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="54" t="s">
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>6.81</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="10">
         <v>6.75</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="10">
         <v>5.8</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="11">
         <v>2.77</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="12">
         <v>1.65</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="13">
         <v>3.76</v>
       </c>
-      <c r="I7" s="11">
+      <c r="I7" s="10">
         <v>1.78</v>
       </c>
-      <c r="J7" s="11">
+      <c r="J7" s="10">
         <v>4.43</v>
       </c>
-      <c r="K7" s="11">
+      <c r="K7" s="10">
         <v>4.0599999999999996</v>
       </c>
-      <c r="L7" s="12">
+      <c r="L7" s="11">
         <v>1.8</v>
       </c>
-      <c r="M7" s="13">
+      <c r="M7" s="12">
         <v>2.94</v>
       </c>
-      <c r="N7" s="14">
+      <c r="N7" s="13">
         <v>5.14</v>
       </c>
-      <c r="O7" s="11">
+      <c r="O7" s="10">
         <v>6.25</v>
       </c>
-      <c r="P7" s="11">
+      <c r="P7" s="10">
         <v>5.33</v>
       </c>
-      <c r="Q7" s="11">
+      <c r="Q7" s="10">
         <v>6.6</v>
       </c>
-      <c r="R7" s="12">
+      <c r="R7" s="11">
         <v>3.19</v>
       </c>
-      <c r="S7" s="13">
+      <c r="S7" s="12">
         <v>2.58</v>
       </c>
-      <c r="T7" s="14">
+      <c r="T7" s="13">
         <v>2.29</v>
       </c>
-      <c r="U7" s="11">
+      <c r="U7" s="10">
         <v>3.08</v>
       </c>
-      <c r="V7" s="11">
+      <c r="V7" s="10">
         <v>1.87</v>
       </c>
-      <c r="W7" s="11">
+      <c r="W7" s="10">
         <v>1.8</v>
       </c>
-      <c r="X7" s="12">
+      <c r="X7" s="11">
         <v>4.96</v>
       </c>
-      <c r="Y7" s="13">
+      <c r="Y7" s="12">
         <v>4.1399999999999997</v>
       </c>
-      <c r="Z7" s="14">
+      <c r="Z7" s="13">
         <v>7.52</v>
       </c>
-      <c r="AA7" s="11">
+      <c r="AA7" s="10">
         <v>6.9</v>
       </c>
-      <c r="AB7" s="11">
+      <c r="AB7" s="10">
         <v>3.96</v>
       </c>
-      <c r="AC7" s="15">
+      <c r="AC7" s="14">
         <v>4.8600000000000003</v>
       </c>
-      <c r="AD7" s="12">
+      <c r="AD7" s="11">
         <v>8.16</v>
       </c>
-      <c r="AE7" s="13">
+      <c r="AE7" s="12">
         <v>8.1999999999999993</v>
       </c>
-      <c r="AF7" s="14">
+      <c r="AF7" s="13">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="25"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>60</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="10">
         <v>62.75</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>64.25</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="11">
         <v>59.75</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="12">
         <v>60.5</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>59.25</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="10">
         <v>63.25</v>
       </c>
-      <c r="J8" s="11">
+      <c r="J8" s="10">
         <v>65.75</v>
       </c>
-      <c r="K8" s="11">
+      <c r="K8" s="10">
         <v>60</v>
       </c>
-      <c r="L8" s="12">
+      <c r="L8" s="11">
         <v>56.5</v>
       </c>
-      <c r="M8" s="13">
+      <c r="M8" s="12">
         <v>56.75</v>
       </c>
-      <c r="N8" s="14">
+      <c r="N8" s="13">
         <v>54</v>
       </c>
-      <c r="O8" s="11">
+      <c r="O8" s="10">
         <v>54.25</v>
       </c>
-      <c r="P8" s="11">
+      <c r="P8" s="10">
         <v>62</v>
       </c>
-      <c r="Q8" s="11">
+      <c r="Q8" s="10">
         <v>57.25</v>
       </c>
-      <c r="R8" s="12">
+      <c r="R8" s="11">
         <v>61.75</v>
       </c>
-      <c r="S8" s="13">
+      <c r="S8" s="12">
         <v>58.25</v>
       </c>
-      <c r="T8" s="14">
+      <c r="T8" s="13">
         <v>57.5</v>
       </c>
-      <c r="U8" s="11">
+      <c r="U8" s="10">
         <v>70</v>
       </c>
-      <c r="V8" s="11">
+      <c r="V8" s="10">
         <v>69</v>
       </c>
-      <c r="W8" s="11">
+      <c r="W8" s="10">
         <v>66.5</v>
       </c>
-      <c r="X8" s="12">
+      <c r="X8" s="11">
         <v>59.75</v>
       </c>
-      <c r="Y8" s="13">
+      <c r="Y8" s="12">
         <v>59.75</v>
       </c>
-      <c r="Z8" s="14">
+      <c r="Z8" s="13">
         <v>59.75</v>
       </c>
-      <c r="AA8" s="11">
+      <c r="AA8" s="10">
         <v>58.25</v>
       </c>
-      <c r="AB8" s="11">
+      <c r="AB8" s="10">
         <v>58.75</v>
       </c>
-      <c r="AC8" s="15">
+      <c r="AC8" s="14">
         <v>60.75</v>
       </c>
-      <c r="AD8" s="12">
+      <c r="AD8" s="11">
         <v>51.75</v>
       </c>
-      <c r="AE8" s="13">
+      <c r="AE8" s="12">
         <v>45.5</v>
       </c>
-      <c r="AF8" s="14">
+      <c r="AF8" s="13">
         <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="25"/>
-      <c r="B9" s="27" t="s">
+      <c r="A9" s="54"/>
+      <c r="B9" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="23">
         <v>7.3</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="24">
         <v>6.43</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="24">
         <v>8</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="23">
         <v>2.6</v>
       </c>
-      <c r="G9" s="29">
+      <c r="G9" s="24">
         <v>2.78</v>
       </c>
-      <c r="H9" s="30">
+      <c r="H9" s="25">
         <v>2.95</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="24">
         <v>5.47</v>
       </c>
-      <c r="J9" s="29">
+      <c r="J9" s="24">
         <v>6.6</v>
       </c>
-      <c r="K9" s="29">
+      <c r="K9" s="24">
         <v>6.6</v>
       </c>
-      <c r="L9" s="28">
+      <c r="L9" s="23">
         <v>2.86</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="24">
         <v>3.47</v>
       </c>
-      <c r="N9" s="30">
+      <c r="N9" s="25">
         <v>3.13</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="24">
         <v>6.52</v>
       </c>
-      <c r="P9" s="29">
+      <c r="P9" s="24">
         <v>7.1</v>
       </c>
-      <c r="Q9" s="29">
+      <c r="Q9" s="24">
         <v>5.91</v>
       </c>
-      <c r="R9" s="28">
+      <c r="R9" s="23">
         <v>0.08</v>
       </c>
-      <c r="S9" s="29">
+      <c r="S9" s="24">
         <v>0.26</v>
       </c>
-      <c r="T9" s="30">
-        <v>0</v>
-      </c>
-      <c r="U9" s="29">
+      <c r="T9" s="25">
+        <v>0</v>
+      </c>
+      <c r="U9" s="24">
         <v>7.65</v>
       </c>
-      <c r="V9" s="29">
+      <c r="V9" s="24">
         <v>8.7799999999999994</v>
       </c>
-      <c r="W9" s="29">
+      <c r="W9" s="24">
         <v>7.82</v>
       </c>
-      <c r="X9" s="28">
+      <c r="X9" s="23">
         <v>15.73</v>
       </c>
-      <c r="Y9" s="29">
+      <c r="Y9" s="24">
         <v>15.91</v>
       </c>
-      <c r="Z9" s="30">
+      <c r="Z9" s="25">
         <v>15.56</v>
       </c>
-      <c r="AA9" s="29">
+      <c r="AA9" s="24">
         <v>4.17</v>
       </c>
-      <c r="AB9" s="29">
+      <c r="AB9" s="24">
         <v>5.39</v>
       </c>
-      <c r="AC9" s="30">
+      <c r="AC9" s="25">
         <v>5.21</v>
       </c>
-      <c r="AD9" s="28">
+      <c r="AD9" s="23">
         <v>32.78</v>
       </c>
-      <c r="AE9" s="29">
+      <c r="AE9" s="24">
         <v>30.86</v>
       </c>
-      <c r="AF9" s="30">
+      <c r="AF9" s="25">
         <v>32.78</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="25"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="11">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12">
-        <v>0</v>
-      </c>
-      <c r="G10" s="13">
-        <v>0</v>
-      </c>
-      <c r="H10" s="14">
-        <v>0</v>
-      </c>
-      <c r="I10" s="11">
-        <v>0</v>
-      </c>
-      <c r="J10" s="11">
-        <v>0</v>
-      </c>
-      <c r="K10" s="11">
-        <v>0</v>
-      </c>
-      <c r="L10" s="12">
-        <v>0</v>
-      </c>
-      <c r="M10" s="13">
-        <v>0</v>
-      </c>
-      <c r="N10" s="14">
-        <v>0</v>
-      </c>
-      <c r="O10" s="11">
-        <v>0</v>
-      </c>
-      <c r="P10" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="11">
-        <v>0</v>
-      </c>
-      <c r="R10" s="12">
-        <v>0</v>
-      </c>
-      <c r="S10" s="13">
-        <v>0</v>
-      </c>
-      <c r="T10" s="14">
-        <v>0</v>
-      </c>
-      <c r="U10" s="11">
-        <v>0</v>
-      </c>
-      <c r="V10" s="11">
-        <v>0</v>
-      </c>
-      <c r="W10" s="11">
-        <v>0</v>
-      </c>
-      <c r="X10" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="12">
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0</v>
+      </c>
+      <c r="E10" s="10">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
+        <v>0</v>
+      </c>
+      <c r="G10" s="12">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="10">
+        <v>0</v>
+      </c>
+      <c r="J10" s="10">
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0</v>
+      </c>
+      <c r="L10" s="11">
+        <v>0</v>
+      </c>
+      <c r="M10" s="12">
+        <v>0</v>
+      </c>
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
+      <c r="O10" s="10">
+        <v>0</v>
+      </c>
+      <c r="P10" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>0</v>
+      </c>
+      <c r="R10" s="11">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12">
+        <v>0</v>
+      </c>
+      <c r="T10" s="13">
+        <v>0</v>
+      </c>
+      <c r="U10" s="10">
+        <v>0</v>
+      </c>
+      <c r="V10" s="10">
+        <v>0</v>
+      </c>
+      <c r="W10" s="10">
+        <v>0</v>
+      </c>
+      <c r="X10" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="11">
         <v>1</v>
       </c>
-      <c r="AE10" s="13">
+      <c r="AE10" s="12">
         <v>1</v>
       </c>
-      <c r="AF10" s="14">
+      <c r="AF10" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="25"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="10">
-        <v>0</v>
-      </c>
-      <c r="D11" s="11">
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <v>0</v>
-      </c>
-      <c r="F11" s="12">
-        <v>0</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0</v>
-      </c>
-      <c r="H11" s="14">
-        <v>0</v>
-      </c>
-      <c r="I11" s="11">
-        <v>0</v>
-      </c>
-      <c r="J11" s="11">
-        <v>0</v>
-      </c>
-      <c r="K11" s="11">
-        <v>0</v>
-      </c>
-      <c r="L11" s="12">
-        <v>0</v>
-      </c>
-      <c r="M11" s="13">
-        <v>0</v>
-      </c>
-      <c r="N11" s="14">
-        <v>0</v>
-      </c>
-      <c r="O11" s="11">
-        <v>0</v>
-      </c>
-      <c r="P11" s="11">
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="10">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <v>0</v>
+      </c>
+      <c r="G11" s="12">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="10">
+        <v>0</v>
+      </c>
+      <c r="J11" s="10">
+        <v>0</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0</v>
+      </c>
+      <c r="L11" s="11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="12">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
+      <c r="O11" s="10">
+        <v>0</v>
+      </c>
+      <c r="P11" s="10">
         <v>1</v>
       </c>
-      <c r="Q11" s="11">
-        <v>0</v>
-      </c>
-      <c r="R11" s="12">
-        <v>0</v>
-      </c>
-      <c r="S11" s="13">
-        <v>0</v>
-      </c>
-      <c r="T11" s="14">
-        <v>0</v>
-      </c>
-      <c r="U11" s="11">
-        <v>0</v>
-      </c>
-      <c r="V11" s="11">
-        <v>0</v>
-      </c>
-      <c r="W11" s="11">
-        <v>0</v>
-      </c>
-      <c r="X11" s="12">
+      <c r="Q11" s="10">
+        <v>0</v>
+      </c>
+      <c r="R11" s="11">
+        <v>0</v>
+      </c>
+      <c r="S11" s="12">
+        <v>0</v>
+      </c>
+      <c r="T11" s="13">
+        <v>0</v>
+      </c>
+      <c r="U11" s="10">
+        <v>0</v>
+      </c>
+      <c r="V11" s="10">
+        <v>0</v>
+      </c>
+      <c r="W11" s="10">
+        <v>0</v>
+      </c>
+      <c r="X11" s="11">
         <v>1</v>
       </c>
-      <c r="Y11" s="13">
+      <c r="Y11" s="12">
         <v>2</v>
       </c>
-      <c r="Z11" s="14">
+      <c r="Z11" s="13">
         <v>1</v>
       </c>
-      <c r="AA11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="12">
+      <c r="AA11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="11">
         <v>2</v>
       </c>
-      <c r="AE11" s="13">
+      <c r="AE11" s="12">
         <v>2</v>
       </c>
-      <c r="AF11" s="14">
+      <c r="AF11" s="13">
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="3">
         <v>2.91</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="4">
         <v>1.1100000000000001</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="4">
         <v>2.29</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="5">
         <v>2.16</v>
       </c>
-      <c r="G12" s="7">
+      <c r="G12" s="6">
         <v>2.68</v>
       </c>
-      <c r="H12" s="8">
+      <c r="H12" s="7">
         <v>2.38</v>
       </c>
-      <c r="I12" s="5">
+      <c r="I12" s="4">
         <v>2.23</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>1.63</v>
       </c>
-      <c r="K12" s="5">
+      <c r="K12" s="4">
         <v>3.2</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <v>6.41</v>
       </c>
-      <c r="M12" s="7">
+      <c r="M12" s="6">
         <v>6.02</v>
       </c>
-      <c r="N12" s="8">
+      <c r="N12" s="7">
         <v>6.53</v>
       </c>
-      <c r="O12" s="5">
+      <c r="O12" s="4">
         <v>7.36</v>
       </c>
-      <c r="P12" s="5">
+      <c r="P12" s="4">
         <v>5.21</v>
       </c>
-      <c r="Q12" s="5">
+      <c r="Q12" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="R12" s="6">
+      <c r="R12" s="5">
         <v>8.6</v>
       </c>
-      <c r="S12" s="7">
+      <c r="S12" s="6">
         <v>8.52</v>
       </c>
-      <c r="T12" s="8">
+      <c r="T12" s="7">
         <v>8.61</v>
       </c>
-      <c r="U12" s="5">
+      <c r="U12" s="4">
         <v>13.4</v>
       </c>
-      <c r="V12" s="5">
+      <c r="V12" s="4">
         <v>13.17</v>
       </c>
-      <c r="W12" s="5">
+      <c r="W12" s="4">
         <v>15</v>
       </c>
-      <c r="X12" s="6">
+      <c r="X12" s="5">
         <v>6.18</v>
       </c>
-      <c r="Y12" s="7">
+      <c r="Y12" s="6">
         <v>5.71</v>
       </c>
-      <c r="Z12" s="8">
+      <c r="Z12" s="7">
         <v>6.59</v>
       </c>
-      <c r="AA12" s="5">
+      <c r="AA12" s="4">
         <v>4.0199999999999996</v>
       </c>
-      <c r="AB12" s="5">
+      <c r="AB12" s="4">
         <v>1.78</v>
       </c>
-      <c r="AC12" s="9">
+      <c r="AC12" s="8">
         <v>2.38</v>
       </c>
-      <c r="AD12" s="6">
+      <c r="AD12" s="5">
         <v>2.38</v>
       </c>
-      <c r="AE12" s="7">
+      <c r="AE12" s="6">
         <v>1.22</v>
       </c>
-      <c r="AF12" s="8">
+      <c r="AF12" s="7">
         <v>5.35</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="25"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="9">
         <v>62</v>
       </c>
-      <c r="D13" s="11">
+      <c r="D13" s="10">
         <v>60.5</v>
       </c>
-      <c r="E13" s="11">
+      <c r="E13" s="10">
         <v>61.5</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="11">
         <v>63.25</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="12">
         <v>61.75</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>64.25</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="10">
         <v>66</v>
       </c>
-      <c r="J13" s="11">
+      <c r="J13" s="10">
         <v>66.75</v>
       </c>
-      <c r="K13" s="11">
+      <c r="K13" s="10">
         <v>67.5</v>
       </c>
-      <c r="L13" s="12">
+      <c r="L13" s="11">
         <v>50</v>
       </c>
-      <c r="M13" s="13">
+      <c r="M13" s="12">
         <v>49.5</v>
       </c>
-      <c r="N13" s="14">
+      <c r="N13" s="13">
         <v>50.75</v>
       </c>
-      <c r="O13" s="11">
+      <c r="O13" s="10">
         <v>53.25</v>
       </c>
-      <c r="P13" s="11">
+      <c r="P13" s="10">
         <v>54.25</v>
       </c>
-      <c r="Q13" s="11">
+      <c r="Q13" s="10">
         <v>52.75</v>
       </c>
-      <c r="R13" s="12">
+      <c r="R13" s="11">
         <v>53</v>
       </c>
-      <c r="S13" s="13">
+      <c r="S13" s="12">
         <v>52.25</v>
       </c>
-      <c r="T13" s="14">
+      <c r="T13" s="13">
         <v>53.5</v>
       </c>
-      <c r="U13" s="11">
+      <c r="U13" s="10">
         <v>52.25</v>
       </c>
-      <c r="V13" s="11">
+      <c r="V13" s="10">
         <v>51.25</v>
       </c>
-      <c r="W13" s="11">
+      <c r="W13" s="10">
         <v>53.25</v>
       </c>
-      <c r="X13" s="12">
+      <c r="X13" s="11">
         <v>55.5</v>
       </c>
-      <c r="Y13" s="13">
+      <c r="Y13" s="12">
         <v>57.25</v>
       </c>
-      <c r="Z13" s="14">
+      <c r="Z13" s="13">
         <v>65</v>
       </c>
-      <c r="AA13" s="11">
+      <c r="AA13" s="10">
         <v>61.75</v>
       </c>
-      <c r="AB13" s="11">
+      <c r="AB13" s="10">
         <v>58.75</v>
       </c>
-      <c r="AC13" s="15">
+      <c r="AC13" s="14">
         <v>60.25</v>
       </c>
-      <c r="AD13" s="12">
+      <c r="AD13" s="11">
         <v>61.75</v>
       </c>
-      <c r="AE13" s="13">
+      <c r="AE13" s="12">
         <v>63</v>
       </c>
-      <c r="AF13" s="14">
+      <c r="AF13" s="13">
         <v>61.75</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="25"/>
-      <c r="B14" s="27" t="s">
+      <c r="A14" s="54"/>
+      <c r="B14" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="23">
         <v>7.13</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="24">
         <v>7.39</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="24">
         <v>6.4</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="23">
         <v>3.56</v>
       </c>
-      <c r="G14" s="29">
+      <c r="G14" s="24">
         <v>2.2599999999999998</v>
       </c>
-      <c r="H14" s="30">
+      <c r="H14" s="25">
         <v>3.21</v>
       </c>
-      <c r="I14" s="29">
+      <c r="I14" s="24">
         <v>2.2599999999999998</v>
       </c>
-      <c r="J14" s="29">
+      <c r="J14" s="24">
         <v>1.82</v>
       </c>
-      <c r="K14" s="29">
+      <c r="K14" s="24">
         <v>1.3</v>
       </c>
-      <c r="L14" s="28">
+      <c r="L14" s="23">
         <v>25.1</v>
       </c>
-      <c r="M14" s="29">
+      <c r="M14" s="24">
         <v>25.47</v>
       </c>
-      <c r="N14" s="30">
+      <c r="N14" s="25">
         <v>25.56</v>
       </c>
-      <c r="O14" s="29">
+      <c r="O14" s="24">
         <v>24.17</v>
       </c>
-      <c r="P14" s="29">
+      <c r="P14" s="24">
         <v>23.56</v>
       </c>
-      <c r="Q14" s="29">
+      <c r="Q14" s="24">
         <v>23.82</v>
       </c>
-      <c r="R14" s="28">
+      <c r="R14" s="23">
         <v>12.08</v>
       </c>
-      <c r="S14" s="29">
+      <c r="S14" s="24">
         <v>11.13</v>
       </c>
-      <c r="T14" s="30">
+      <c r="T14" s="25">
         <v>11.73</v>
       </c>
-      <c r="U14" s="29">
+      <c r="U14" s="24">
         <v>34.78</v>
       </c>
-      <c r="V14" s="29">
+      <c r="V14" s="24">
         <v>34.08</v>
       </c>
-      <c r="W14" s="29">
+      <c r="W14" s="24">
         <v>32.69</v>
       </c>
-      <c r="X14" s="28">
+      <c r="X14" s="23">
         <v>18.52</v>
       </c>
-      <c r="Y14" s="29">
+      <c r="Y14" s="24">
         <v>18.95</v>
       </c>
-      <c r="Z14" s="30">
+      <c r="Z14" s="25">
         <v>20.6</v>
       </c>
-      <c r="AA14" s="29">
+      <c r="AA14" s="24">
         <v>2.86</v>
       </c>
-      <c r="AB14" s="29">
+      <c r="AB14" s="24">
         <v>2.75</v>
       </c>
-      <c r="AC14" s="30">
+      <c r="AC14" s="25">
         <v>2.52</v>
       </c>
-      <c r="AD14" s="28">
+      <c r="AD14" s="23">
         <v>13.56</v>
       </c>
-      <c r="AE14" s="29">
+      <c r="AE14" s="24">
         <v>15.04</v>
       </c>
-      <c r="AF14" s="30">
+      <c r="AF14" s="25">
         <v>15.47</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="25"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="10">
-        <v>0</v>
-      </c>
-      <c r="D15" s="11">
-        <v>0</v>
-      </c>
-      <c r="E15" s="11">
-        <v>0</v>
-      </c>
-      <c r="F15" s="12">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-      <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="11">
-        <v>0</v>
-      </c>
-      <c r="J15" s="11">
-        <v>0</v>
-      </c>
-      <c r="K15" s="11">
-        <v>0</v>
-      </c>
-      <c r="L15" s="12">
-        <v>0</v>
-      </c>
-      <c r="M15" s="13">
-        <v>0</v>
-      </c>
-      <c r="N15" s="14">
-        <v>0</v>
-      </c>
-      <c r="O15" s="11">
-        <v>0</v>
-      </c>
-      <c r="P15" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="11">
-        <v>0</v>
-      </c>
-      <c r="R15" s="12">
-        <v>0</v>
-      </c>
-      <c r="S15" s="13">
-        <v>0</v>
-      </c>
-      <c r="T15" s="14">
-        <v>0</v>
-      </c>
-      <c r="U15" s="11">
+      <c r="C15" s="9">
+        <v>0</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0</v>
+      </c>
+      <c r="E15" s="10">
+        <v>0</v>
+      </c>
+      <c r="F15" s="11">
+        <v>0</v>
+      </c>
+      <c r="G15" s="12">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="10">
+        <v>0</v>
+      </c>
+      <c r="J15" s="10">
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0</v>
+      </c>
+      <c r="L15" s="11">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10">
+        <v>0</v>
+      </c>
+      <c r="P15" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>0</v>
+      </c>
+      <c r="R15" s="11">
+        <v>0</v>
+      </c>
+      <c r="S15" s="12">
+        <v>0</v>
+      </c>
+      <c r="T15" s="13">
+        <v>0</v>
+      </c>
+      <c r="U15" s="10">
         <v>1</v>
       </c>
-      <c r="V15" s="11">
+      <c r="V15" s="10">
         <v>1</v>
       </c>
-      <c r="W15" s="11">
-        <v>0</v>
-      </c>
-      <c r="X15" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC15" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD15" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF15" s="14">
+      <c r="W15" s="10">
+        <v>0</v>
+      </c>
+      <c r="X15" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="25"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="16">
-        <v>0</v>
-      </c>
-      <c r="D16" s="17">
-        <v>0</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0</v>
-      </c>
-      <c r="F16" s="18">
-        <v>0</v>
-      </c>
-      <c r="G16" s="19">
-        <v>0</v>
-      </c>
-      <c r="H16" s="20">
-        <v>0</v>
-      </c>
-      <c r="I16" s="17">
-        <v>0</v>
-      </c>
-      <c r="J16" s="17">
-        <v>0</v>
-      </c>
-      <c r="K16" s="17">
-        <v>0</v>
-      </c>
-      <c r="L16" s="18">
+      <c r="C16" s="15">
+        <v>0</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="17">
+        <v>0</v>
+      </c>
+      <c r="G16" s="18">
+        <v>0</v>
+      </c>
+      <c r="H16" s="19">
+        <v>0</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="16">
+        <v>0</v>
+      </c>
+      <c r="K16" s="16">
+        <v>0</v>
+      </c>
+      <c r="L16" s="17">
         <v>2</v>
       </c>
-      <c r="M16" s="19">
+      <c r="M16" s="18">
         <v>2</v>
       </c>
-      <c r="N16" s="20">
+      <c r="N16" s="19">
         <v>2</v>
       </c>
-      <c r="O16" s="17">
+      <c r="O16" s="16">
         <v>3</v>
       </c>
-      <c r="P16" s="17">
+      <c r="P16" s="16">
         <v>3</v>
       </c>
-      <c r="Q16" s="17">
+      <c r="Q16" s="16">
         <v>2</v>
       </c>
-      <c r="R16" s="18">
+      <c r="R16" s="17">
         <v>1</v>
       </c>
-      <c r="S16" s="19">
+      <c r="S16" s="18">
         <v>1</v>
       </c>
-      <c r="T16" s="20">
+      <c r="T16" s="19">
         <v>1</v>
       </c>
-      <c r="U16" s="17">
-        <v>0</v>
-      </c>
-      <c r="V16" s="17">
-        <v>0</v>
-      </c>
-      <c r="W16" s="17">
+      <c r="U16" s="16">
+        <v>0</v>
+      </c>
+      <c r="V16" s="16">
+        <v>0</v>
+      </c>
+      <c r="W16" s="16">
         <v>1</v>
       </c>
-      <c r="X16" s="18">
+      <c r="X16" s="17">
         <v>2</v>
       </c>
-      <c r="Y16" s="19">
+      <c r="Y16" s="18">
         <v>2</v>
       </c>
-      <c r="Z16" s="20">
+      <c r="Z16" s="19">
         <v>2</v>
       </c>
-      <c r="AA16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="18">
+      <c r="AA16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="17">
         <v>2</v>
       </c>
-      <c r="AE16" s="19">
+      <c r="AE16" s="18">
         <v>2</v>
       </c>
-      <c r="AF16" s="20">
+      <c r="AF16" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="54" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C17" s="3">
         <v>7.51</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <v>6.8</v>
       </c>
-      <c r="E17" s="5">
+      <c r="E17" s="4">
         <v>4.92</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <v>4.41</v>
       </c>
-      <c r="G17" s="7">
+      <c r="G17" s="6">
         <v>4.74</v>
       </c>
-      <c r="H17" s="8">
+      <c r="H17" s="7">
         <v>3.35</v>
       </c>
-      <c r="I17" s="5">
+      <c r="I17" s="4">
         <v>3.19</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>1.8</v>
       </c>
-      <c r="K17" s="5">
+      <c r="K17" s="4">
         <v>4.71</v>
       </c>
-      <c r="L17" s="6">
+      <c r="L17" s="5">
         <v>3.63</v>
       </c>
-      <c r="M17" s="7">
+      <c r="M17" s="6">
         <v>5.3</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="7">
         <v>4.03</v>
       </c>
-      <c r="O17" s="5">
+      <c r="O17" s="4">
         <v>2.59</v>
       </c>
-      <c r="P17" s="5">
+      <c r="P17" s="4">
         <v>2.44</v>
       </c>
-      <c r="Q17" s="5">
+      <c r="Q17" s="4">
         <v>3.34</v>
       </c>
-      <c r="R17" s="6">
+      <c r="R17" s="5">
         <v>11.43</v>
       </c>
-      <c r="S17" s="7">
+      <c r="S17" s="6">
         <v>11.94</v>
       </c>
-      <c r="T17" s="8">
+      <c r="T17" s="7">
         <v>11.54</v>
       </c>
-      <c r="U17" s="5">
+      <c r="U17" s="4">
         <v>1.63</v>
       </c>
-      <c r="V17" s="5">
+      <c r="V17" s="4">
         <v>3.84</v>
       </c>
-      <c r="W17" s="5">
+      <c r="W17" s="4">
         <v>4.8099999999999996</v>
       </c>
-      <c r="X17" s="6">
+      <c r="X17" s="5">
         <v>7.69</v>
       </c>
-      <c r="Y17" s="7">
+      <c r="Y17" s="6">
         <v>6.9</v>
       </c>
-      <c r="Z17" s="8">
+      <c r="Z17" s="7">
         <v>4.54</v>
       </c>
-      <c r="AA17" s="5">
+      <c r="AA17" s="4">
         <v>2.73</v>
       </c>
-      <c r="AB17" s="5">
+      <c r="AB17" s="4">
         <v>3.26</v>
       </c>
-      <c r="AC17" s="9">
+      <c r="AC17" s="8">
         <v>3.53</v>
       </c>
-      <c r="AD17" s="6">
+      <c r="AD17" s="5">
         <v>3.11</v>
       </c>
-      <c r="AE17" s="7">
+      <c r="AE17" s="6">
         <v>5.09</v>
       </c>
-      <c r="AF17" s="8">
+      <c r="AF17" s="7">
         <v>1.92</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A18" s="25"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="9">
         <v>61</v>
       </c>
-      <c r="D18" s="11">
+      <c r="D18" s="10">
         <v>60.5</v>
       </c>
-      <c r="E18" s="11">
+      <c r="E18" s="10">
         <v>59.5</v>
       </c>
-      <c r="F18" s="12">
+      <c r="F18" s="11">
         <v>63</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="12">
         <v>65</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>62.5</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>65.25</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="10">
         <v>65.5</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="10">
         <v>63.5</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="11">
         <v>56.75</v>
       </c>
-      <c r="M18" s="13">
+      <c r="M18" s="12">
         <v>59.25</v>
       </c>
-      <c r="N18" s="14">
+      <c r="N18" s="13">
         <v>59.5</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="10">
         <v>56.5</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="10">
         <v>58</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="10">
         <v>56.75</v>
       </c>
-      <c r="R18" s="12">
+      <c r="R18" s="11">
         <v>51.25</v>
       </c>
-      <c r="S18" s="13">
+      <c r="S18" s="12">
         <v>49.75</v>
       </c>
-      <c r="T18" s="14">
+      <c r="T18" s="13">
         <v>50.5</v>
       </c>
-      <c r="U18" s="11">
+      <c r="U18" s="10">
         <v>66.25</v>
       </c>
-      <c r="V18" s="11">
+      <c r="V18" s="10">
         <v>68.5</v>
       </c>
-      <c r="W18" s="11">
+      <c r="W18" s="10">
         <v>63.75</v>
       </c>
-      <c r="X18" s="12">
+      <c r="X18" s="11">
         <v>58.5</v>
       </c>
-      <c r="Y18" s="13">
+      <c r="Y18" s="12">
         <v>59.75</v>
       </c>
-      <c r="Z18" s="14">
+      <c r="Z18" s="13">
         <v>60.75</v>
       </c>
-      <c r="AA18" s="11">
+      <c r="AA18" s="10">
         <v>57</v>
       </c>
-      <c r="AB18" s="11">
+      <c r="AB18" s="10">
         <v>57.75</v>
       </c>
-      <c r="AC18" s="15">
+      <c r="AC18" s="14">
         <v>60</v>
       </c>
-      <c r="AD18" s="12">
+      <c r="AD18" s="11">
         <v>58.75</v>
       </c>
-      <c r="AE18" s="13">
+      <c r="AE18" s="12">
         <v>58</v>
       </c>
-      <c r="AF18" s="14">
+      <c r="AF18" s="13">
         <v>58.25</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A19" s="25"/>
-      <c r="B19" s="27" t="s">
+      <c r="A19" s="54"/>
+      <c r="B19" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="28">
+      <c r="C19" s="23">
         <v>6.34</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="24">
         <v>6.2</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="24">
         <v>6.34</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="23">
         <v>2.4</v>
       </c>
-      <c r="G19" s="29">
+      <c r="G19" s="24">
         <v>2.17</v>
       </c>
-      <c r="H19" s="30">
+      <c r="H19" s="25">
         <v>2.69</v>
       </c>
-      <c r="I19" s="29">
+      <c r="I19" s="24">
         <v>4.08</v>
       </c>
-      <c r="J19" s="29">
+      <c r="J19" s="24">
         <v>4.08</v>
       </c>
-      <c r="K19" s="29">
+      <c r="K19" s="24">
         <v>4.5999999999999996</v>
       </c>
-      <c r="L19" s="28">
+      <c r="L19" s="23">
         <v>0.08</v>
       </c>
-      <c r="M19" s="29">
+      <c r="M19" s="24">
         <v>0.08</v>
       </c>
-      <c r="N19" s="30">
-        <v>0</v>
-      </c>
-      <c r="O19" s="29">
+      <c r="N19" s="25">
+        <v>0</v>
+      </c>
+      <c r="O19" s="24">
         <v>1.39</v>
       </c>
-      <c r="P19" s="29">
+      <c r="P19" s="24">
         <v>2.4300000000000002</v>
       </c>
-      <c r="Q19" s="29">
+      <c r="Q19" s="24">
         <v>2.17</v>
       </c>
-      <c r="R19" s="28">
+      <c r="R19" s="23">
         <v>9.91</v>
       </c>
-      <c r="S19" s="29">
+      <c r="S19" s="24">
         <v>10.17</v>
       </c>
-      <c r="T19" s="30">
+      <c r="T19" s="25">
         <v>11.3</v>
       </c>
-      <c r="U19" s="29">
+      <c r="U19" s="24">
         <v>0.08</v>
       </c>
-      <c r="V19" s="29">
+      <c r="V19" s="24">
         <v>1.04</v>
       </c>
-      <c r="W19" s="29">
+      <c r="W19" s="24">
         <v>1.91</v>
       </c>
-      <c r="X19" s="28">
+      <c r="X19" s="23">
         <v>8.17</v>
       </c>
-      <c r="Y19" s="29">
+      <c r="Y19" s="24">
         <v>8.52</v>
       </c>
-      <c r="Z19" s="30">
+      <c r="Z19" s="25">
         <v>7.65</v>
       </c>
-      <c r="AA19" s="29">
+      <c r="AA19" s="24">
         <v>1.91</v>
       </c>
-      <c r="AB19" s="29">
+      <c r="AB19" s="24">
         <v>2.08</v>
       </c>
-      <c r="AC19" s="30">
+      <c r="AC19" s="25">
         <v>2.17</v>
       </c>
-      <c r="AD19" s="28">
+      <c r="AD19" s="23">
         <v>11.56</v>
       </c>
-      <c r="AE19" s="29">
+      <c r="AE19" s="24">
         <v>14.26</v>
       </c>
-      <c r="AF19" s="30">
+      <c r="AF19" s="25">
         <v>13.82</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A20" s="25"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="10">
-        <v>0</v>
-      </c>
-      <c r="D20" s="11">
-        <v>0</v>
-      </c>
-      <c r="E20" s="11">
-        <v>0</v>
-      </c>
-      <c r="F20" s="12">
-        <v>0</v>
-      </c>
-      <c r="G20" s="13">
-        <v>0</v>
-      </c>
-      <c r="H20" s="14">
-        <v>0</v>
-      </c>
-      <c r="I20" s="11">
-        <v>0</v>
-      </c>
-      <c r="J20" s="11">
-        <v>0</v>
-      </c>
-      <c r="K20" s="11">
-        <v>0</v>
-      </c>
-      <c r="L20" s="12">
-        <v>0</v>
-      </c>
-      <c r="M20" s="13">
-        <v>0</v>
-      </c>
-      <c r="N20" s="14">
-        <v>0</v>
-      </c>
-      <c r="O20" s="11">
-        <v>0</v>
-      </c>
-      <c r="P20" s="11">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="11">
-        <v>0</v>
-      </c>
-      <c r="R20" s="12">
-        <v>0</v>
-      </c>
-      <c r="S20" s="13">
-        <v>0</v>
-      </c>
-      <c r="T20" s="14">
-        <v>0</v>
-      </c>
-      <c r="U20" s="11">
-        <v>0</v>
-      </c>
-      <c r="V20" s="11">
-        <v>0</v>
-      </c>
-      <c r="W20" s="11">
-        <v>0</v>
-      </c>
-      <c r="X20" s="12">
-        <v>0</v>
-      </c>
-      <c r="Y20" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="14">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="11">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="15">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="12">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="14">
+      <c r="C20" s="9">
+        <v>0</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0</v>
+      </c>
+      <c r="E20" s="10">
+        <v>0</v>
+      </c>
+      <c r="F20" s="11">
+        <v>0</v>
+      </c>
+      <c r="G20" s="12">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="10">
+        <v>0</v>
+      </c>
+      <c r="J20" s="10">
+        <v>0</v>
+      </c>
+      <c r="K20" s="10">
+        <v>0</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
+        <v>0</v>
+      </c>
+      <c r="O20" s="10">
+        <v>0</v>
+      </c>
+      <c r="P20" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>0</v>
+      </c>
+      <c r="R20" s="11">
+        <v>0</v>
+      </c>
+      <c r="S20" s="12">
+        <v>0</v>
+      </c>
+      <c r="T20" s="13">
+        <v>0</v>
+      </c>
+      <c r="U20" s="10">
+        <v>0</v>
+      </c>
+      <c r="V20" s="10">
+        <v>0</v>
+      </c>
+      <c r="W20" s="10">
+        <v>0</v>
+      </c>
+      <c r="X20" s="11">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="12">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="10">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="14">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="11">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="12">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="13">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A21" s="26"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="16">
+      <c r="C21" s="15">
         <v>1</v>
       </c>
-      <c r="D21" s="17">
+      <c r="D21" s="16">
         <v>1</v>
       </c>
-      <c r="E21" s="17">
+      <c r="E21" s="16">
         <v>1</v>
       </c>
-      <c r="F21" s="18">
-        <v>0</v>
-      </c>
-      <c r="G21" s="19">
-        <v>0</v>
-      </c>
-      <c r="H21" s="20">
-        <v>0</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0</v>
-      </c>
-      <c r="J21" s="17">
-        <v>0</v>
-      </c>
-      <c r="K21" s="17">
-        <v>0</v>
-      </c>
-      <c r="L21" s="18">
-        <v>0</v>
-      </c>
-      <c r="M21" s="19">
-        <v>0</v>
-      </c>
-      <c r="N21" s="20">
-        <v>0</v>
-      </c>
-      <c r="O21" s="17">
-        <v>0</v>
-      </c>
-      <c r="P21" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="17">
-        <v>0</v>
-      </c>
-      <c r="R21" s="18">
+      <c r="F21" s="17">
+        <v>0</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0</v>
+      </c>
+      <c r="H21" s="19">
+        <v>0</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="16">
+        <v>0</v>
+      </c>
+      <c r="K21" s="16">
+        <v>0</v>
+      </c>
+      <c r="L21" s="17">
+        <v>0</v>
+      </c>
+      <c r="M21" s="18">
+        <v>0</v>
+      </c>
+      <c r="N21" s="19">
+        <v>0</v>
+      </c>
+      <c r="O21" s="16">
+        <v>0</v>
+      </c>
+      <c r="P21" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>0</v>
+      </c>
+      <c r="R21" s="17">
         <v>1</v>
       </c>
-      <c r="S21" s="19">
+      <c r="S21" s="18">
         <v>1</v>
       </c>
-      <c r="T21" s="20">
+      <c r="T21" s="19">
         <v>1</v>
       </c>
-      <c r="U21" s="17">
-        <v>0</v>
-      </c>
-      <c r="V21" s="17">
-        <v>0</v>
-      </c>
-      <c r="W21" s="17">
-        <v>0</v>
-      </c>
-      <c r="X21" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="19">
-        <v>0</v>
-      </c>
-      <c r="Z21" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA21" s="17">
-        <v>0</v>
-      </c>
-      <c r="AB21" s="17">
-        <v>0</v>
-      </c>
-      <c r="AC21" s="21">
-        <v>0</v>
-      </c>
-      <c r="AD21" s="18">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="19">
+      <c r="U21" s="16">
+        <v>0</v>
+      </c>
+      <c r="V21" s="16">
+        <v>0</v>
+      </c>
+      <c r="W21" s="16">
+        <v>0</v>
+      </c>
+      <c r="X21" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="19">
+        <v>0</v>
+      </c>
+      <c r="AA21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AB21" s="16">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD21" s="17">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="18">
         <v>1</v>
       </c>
-      <c r="AF21" s="20">
+      <c r="AF21" s="19">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:35" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A22" s="53" t="s">
+      <c r="A22" s="56" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="AG22" s="32">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="33">
+      <c r="B22" s="56"/>
+      <c r="AG22" s="27">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="28">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="55"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="57"/>
     </row>
     <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="55"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="57"/>
     </row>
     <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="55"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="57"/>
     </row>
     <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
-      <c r="B26" s="55"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="57"/>
     </row>
     <row r="27" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="55"/>
-      <c r="AI27" s="31" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="57"/>
+      <c r="AI27" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="28" spans="1:35" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="55"/>
-      <c r="AI28" s="31" t="s">
+      <c r="A28" s="57"/>
+      <c r="B28" s="57"/>
+      <c r="AI28" s="26" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="57"/>
     </row>
     <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="55"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="57"/>
     </row>
     <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
-      <c r="B31" s="55"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="57"/>
     </row>
     <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="55"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="57"/>
     </row>
     <row r="33" spans="1:35" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A33" s="55"/>
-      <c r="B33" s="55"/>
-      <c r="AG33" s="32">
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
+      <c r="AG33" s="27">
         <v>2</v>
       </c>
-      <c r="AI33" s="33">
+      <c r="AI33" s="28">
         <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="55"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="57"/>
     </row>
     <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="55"/>
-      <c r="AH35" s="22" t="s">
+      <c r="A35" s="57"/>
+      <c r="B35" s="57"/>
+      <c r="AH35" s="21" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="55"/>
-      <c r="AH36" s="22" t="s">
+      <c r="A36" s="57"/>
+      <c r="B36" s="57"/>
+      <c r="AH36" s="21" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="54"/>
-      <c r="B37" s="54"/>
-      <c r="AH37" s="22" t="s">
+      <c r="A37" s="58"/>
+      <c r="B37" s="58"/>
+      <c r="AH37" s="21" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A38" s="24" t="s">
+      <c r="A38" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="34" t="s">
+      <c r="B38" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C38" s="35">
+      <c r="C38" s="30">
         <v>5.5396299515400846</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D38" s="31">
         <v>3.699662146737186</v>
       </c>
-      <c r="E38" s="37">
+      <c r="E38" s="32">
         <v>5.5901699437494754</v>
       </c>
-      <c r="F38" s="38">
+      <c r="F38" s="33">
         <v>13.351029922818689</v>
       </c>
-      <c r="G38" s="39">
+      <c r="G38" s="34">
         <v>11.76860229593982</v>
       </c>
-      <c r="H38" s="40">
+      <c r="H38" s="35">
         <v>11.68332144554792</v>
       </c>
-      <c r="I38" s="35">
+      <c r="I38" s="30">
         <v>1.8708286933869711</v>
       </c>
-      <c r="J38" s="36">
+      <c r="J38" s="31">
         <v>2.2912878474779199</v>
       </c>
-      <c r="K38" s="36">
+      <c r="K38" s="31">
         <v>3.905124837953327</v>
       </c>
-      <c r="L38" s="38">
+      <c r="L38" s="33">
         <v>1.299038105676658</v>
       </c>
-      <c r="M38" s="39">
+      <c r="M38" s="34">
         <v>2.1213203435596419</v>
       </c>
-      <c r="N38" s="40">
+      <c r="N38" s="35">
         <v>2.4494897427831779</v>
       </c>
-      <c r="O38" s="35">
+      <c r="O38" s="30">
         <v>2.8613807855648989</v>
       </c>
-      <c r="P38" s="36">
+      <c r="P38" s="31">
         <v>0.8660254037844386</v>
       </c>
-      <c r="Q38" s="37">
+      <c r="Q38" s="32">
         <v>2.5860201081971499</v>
       </c>
-      <c r="R38" s="38">
+      <c r="R38" s="33">
         <v>2.5495097567963918</v>
       </c>
-      <c r="S38" s="39">
+      <c r="S38" s="34">
         <v>1.2247448713915889</v>
       </c>
-      <c r="T38" s="40">
+      <c r="T38" s="35">
         <v>3.3541019662496852</v>
       </c>
-      <c r="U38" s="35">
+      <c r="U38" s="30">
         <v>2.046338192968113</v>
       </c>
-      <c r="V38" s="36">
+      <c r="V38" s="31">
         <v>3.640054944640259</v>
       </c>
-      <c r="W38" s="37">
+      <c r="W38" s="32">
         <v>1.4142135623730949</v>
       </c>
-      <c r="X38" s="38">
+      <c r="X38" s="33">
         <v>1.5</v>
       </c>
-      <c r="Y38" s="39">
+      <c r="Y38" s="34">
         <v>4.4721359549995796</v>
       </c>
-      <c r="Z38" s="40">
+      <c r="Z38" s="35">
         <v>1.8708286933869711</v>
       </c>
-      <c r="AA38" s="35">
+      <c r="AA38" s="30">
         <v>4.5</v>
       </c>
-      <c r="AB38" s="36">
+      <c r="AB38" s="31">
         <v>1.7853571071357131</v>
       </c>
-      <c r="AC38" s="37">
+      <c r="AC38" s="32">
         <v>2.4874685927665499</v>
       </c>
-      <c r="AD38" s="38">
+      <c r="AD38" s="33">
         <v>2.1213203435596419</v>
       </c>
-      <c r="AE38" s="39">
+      <c r="AE38" s="34">
         <v>2.1650635094610968</v>
       </c>
-      <c r="AF38" s="40">
+      <c r="AF38" s="35">
         <v>1.089724735885168</v>
       </c>
-      <c r="AH38" s="22" t="s">
+      <c r="AH38" s="21" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A39" s="25"/>
-      <c r="B39" s="34" t="s">
+      <c r="A39" s="54"/>
+      <c r="B39" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C39" s="41">
+      <c r="C39" s="36">
         <v>51.75</v>
       </c>
-      <c r="D39" s="42">
+      <c r="D39" s="37">
         <v>56.25</v>
       </c>
-      <c r="E39" s="43">
+      <c r="E39" s="38">
         <v>54.5</v>
       </c>
-      <c r="F39" s="44">
+      <c r="F39" s="39">
         <v>53.5</v>
       </c>
-      <c r="G39" s="45">
+      <c r="G39" s="40">
         <v>53</v>
       </c>
-      <c r="H39" s="46">
+      <c r="H39" s="41">
         <v>57</v>
       </c>
-      <c r="I39" s="41">
+      <c r="I39" s="36">
         <v>59</v>
       </c>
-      <c r="J39" s="42">
+      <c r="J39" s="37">
         <v>57.5</v>
       </c>
-      <c r="K39" s="42">
+      <c r="K39" s="37">
         <v>64.5</v>
       </c>
-      <c r="L39" s="44">
+      <c r="L39" s="39">
         <v>55.75</v>
       </c>
-      <c r="M39" s="45">
+      <c r="M39" s="40">
         <v>56</v>
       </c>
-      <c r="N39" s="46">
+      <c r="N39" s="41">
         <v>55</v>
       </c>
-      <c r="O39" s="41">
+      <c r="O39" s="36">
         <v>52.75</v>
       </c>
-      <c r="P39" s="42">
+      <c r="P39" s="37">
         <v>51.5</v>
       </c>
-      <c r="Q39" s="43">
+      <c r="Q39" s="38">
         <v>49.75</v>
       </c>
-      <c r="R39" s="44">
+      <c r="R39" s="39">
         <v>54</v>
       </c>
-      <c r="S39" s="45">
+      <c r="S39" s="40">
         <v>57</v>
       </c>
-      <c r="T39" s="46">
+      <c r="T39" s="41">
         <v>56.5</v>
       </c>
-      <c r="U39" s="41">
+      <c r="U39" s="36">
         <v>61.25</v>
       </c>
-      <c r="V39" s="42">
+      <c r="V39" s="37">
         <v>59.5</v>
       </c>
-      <c r="W39" s="43">
+      <c r="W39" s="38">
         <v>65</v>
       </c>
-      <c r="X39" s="44">
+      <c r="X39" s="39">
         <v>52.5</v>
       </c>
-      <c r="Y39" s="45">
+      <c r="Y39" s="40">
         <v>51</v>
       </c>
-      <c r="Z39" s="46">
+      <c r="Z39" s="41">
         <v>50</v>
       </c>
-      <c r="AA39" s="41">
+      <c r="AA39" s="36">
         <v>58.5</v>
       </c>
-      <c r="AB39" s="42">
+      <c r="AB39" s="37">
         <v>55.75</v>
       </c>
-      <c r="AC39" s="43">
+      <c r="AC39" s="38">
         <v>55.25</v>
       </c>
-      <c r="AD39" s="44">
+      <c r="AD39" s="39">
         <v>59</v>
       </c>
-      <c r="AE39" s="45">
+      <c r="AE39" s="40">
         <v>58.75</v>
       </c>
-      <c r="AF39" s="46">
+      <c r="AF39" s="41">
         <v>58.75</v>
       </c>
-      <c r="AH39" s="22" t="s">
+      <c r="AH39" s="21" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A40" s="25"/>
-      <c r="B40" s="56" t="s">
+      <c r="A40" s="54"/>
+      <c r="B40" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C40" s="57">
+      <c r="C40" s="49">
         <v>4.0209790209790208</v>
       </c>
-      <c r="D40" s="58">
+      <c r="D40" s="50">
         <v>4.1083916083916083</v>
       </c>
-      <c r="E40" s="59">
+      <c r="E40" s="51">
         <v>2.9720279720279721</v>
       </c>
-      <c r="F40" s="57">
+      <c r="F40" s="49">
         <v>13.02447552447552</v>
       </c>
-      <c r="G40" s="58">
+      <c r="G40" s="50">
         <v>14.33566433566434</v>
       </c>
-      <c r="H40" s="59">
+      <c r="H40" s="51">
         <v>13.46153846153846</v>
       </c>
-      <c r="I40" s="57">
-        <v>0</v>
-      </c>
-      <c r="J40" s="58">
-        <v>0</v>
-      </c>
-      <c r="K40" s="58">
+      <c r="I40" s="49">
+        <v>0</v>
+      </c>
+      <c r="J40" s="50">
+        <v>0</v>
+      </c>
+      <c r="K40" s="50">
         <v>0.17482517482517479</v>
       </c>
-      <c r="L40" s="57">
+      <c r="L40" s="49">
         <v>0.69930069930069927</v>
       </c>
-      <c r="M40" s="58">
+      <c r="M40" s="50">
         <v>1.5734265734265731</v>
       </c>
-      <c r="N40" s="59">
+      <c r="N40" s="51">
         <v>1.136363636363636</v>
       </c>
-      <c r="O40" s="57">
+      <c r="O40" s="49">
         <v>0.69930069930069938</v>
       </c>
-      <c r="P40" s="58">
+      <c r="P40" s="50">
         <v>1.048951048951049</v>
       </c>
-      <c r="Q40" s="59">
+      <c r="Q40" s="51">
         <v>0.43706293706293708</v>
       </c>
-      <c r="R40" s="57">
+      <c r="R40" s="49">
         <v>8.7412587412587409E-2</v>
       </c>
-      <c r="S40" s="58">
-        <v>0</v>
-      </c>
-      <c r="T40" s="59">
-        <v>0</v>
-      </c>
-      <c r="U40" s="57">
-        <v>0</v>
-      </c>
-      <c r="V40" s="58">
-        <v>0</v>
-      </c>
-      <c r="W40" s="59">
+      <c r="S40" s="50">
+        <v>0</v>
+      </c>
+      <c r="T40" s="51">
+        <v>0</v>
+      </c>
+      <c r="U40" s="49">
+        <v>0</v>
+      </c>
+      <c r="V40" s="50">
+        <v>0</v>
+      </c>
+      <c r="W40" s="51">
         <v>0.34965034965034958</v>
       </c>
-      <c r="X40" s="57">
+      <c r="X40" s="49">
         <v>7.3426573426573416</v>
       </c>
-      <c r="Y40" s="58">
+      <c r="Y40" s="50">
         <v>8.2167832167832167</v>
       </c>
-      <c r="Z40" s="59">
+      <c r="Z40" s="51">
         <v>7.8671328671328684</v>
       </c>
-      <c r="AA40" s="57">
+      <c r="AA40" s="49">
         <v>1.223776223776224</v>
       </c>
-      <c r="AB40" s="58">
+      <c r="AB40" s="50">
         <v>1.5734265734265731</v>
       </c>
-      <c r="AC40" s="59">
+      <c r="AC40" s="51">
         <v>0.87412587412587406</v>
       </c>
-      <c r="AD40" s="57">
+      <c r="AD40" s="49">
         <v>0.17482517482517479</v>
       </c>
-      <c r="AE40" s="58">
+      <c r="AE40" s="50">
         <v>0.78671328671328666</v>
       </c>
-      <c r="AF40" s="59">
+      <c r="AF40" s="51">
         <v>0.43706293706293697</v>
       </c>
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A41" s="25"/>
-      <c r="B41" s="34" t="s">
+      <c r="A41" s="54"/>
+      <c r="B41" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C41" s="41">
-        <v>0</v>
-      </c>
-      <c r="D41" s="42">
-        <v>0</v>
-      </c>
-      <c r="E41" s="43">
-        <v>0</v>
-      </c>
-      <c r="F41" s="44">
+      <c r="C41" s="36">
+        <v>0</v>
+      </c>
+      <c r="D41" s="37">
+        <v>0</v>
+      </c>
+      <c r="E41" s="38">
+        <v>0</v>
+      </c>
+      <c r="F41" s="39">
         <v>1</v>
       </c>
-      <c r="G41" s="45">
+      <c r="G41" s="40">
         <v>1</v>
       </c>
-      <c r="H41" s="46">
+      <c r="H41" s="41">
         <v>1</v>
       </c>
-      <c r="I41" s="41">
-        <v>0</v>
-      </c>
-      <c r="J41" s="42">
-        <v>0</v>
-      </c>
-      <c r="K41" s="42">
-        <v>0</v>
-      </c>
-      <c r="L41" s="44">
-        <v>0</v>
-      </c>
-      <c r="M41" s="45">
-        <v>0</v>
-      </c>
-      <c r="N41" s="46">
-        <v>0</v>
-      </c>
-      <c r="O41" s="41">
-        <v>0</v>
-      </c>
-      <c r="P41" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="43">
-        <v>0</v>
-      </c>
-      <c r="R41" s="44">
-        <v>0</v>
-      </c>
-      <c r="S41" s="45">
-        <v>0</v>
-      </c>
-      <c r="T41" s="46">
-        <v>0</v>
-      </c>
-      <c r="U41" s="41">
-        <v>0</v>
-      </c>
-      <c r="V41" s="42">
-        <v>0</v>
-      </c>
-      <c r="W41" s="43">
-        <v>0</v>
-      </c>
-      <c r="X41" s="44">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="41">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="42">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="43">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="45">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="46">
+      <c r="I41" s="36">
+        <v>0</v>
+      </c>
+      <c r="J41" s="37">
+        <v>0</v>
+      </c>
+      <c r="K41" s="37">
+        <v>0</v>
+      </c>
+      <c r="L41" s="39">
+        <v>0</v>
+      </c>
+      <c r="M41" s="40">
+        <v>0</v>
+      </c>
+      <c r="N41" s="41">
+        <v>0</v>
+      </c>
+      <c r="O41" s="36">
+        <v>0</v>
+      </c>
+      <c r="P41" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="38">
+        <v>0</v>
+      </c>
+      <c r="R41" s="39">
+        <v>0</v>
+      </c>
+      <c r="S41" s="40">
+        <v>0</v>
+      </c>
+      <c r="T41" s="41">
+        <v>0</v>
+      </c>
+      <c r="U41" s="36">
+        <v>0</v>
+      </c>
+      <c r="V41" s="37">
+        <v>0</v>
+      </c>
+      <c r="W41" s="38">
+        <v>0</v>
+      </c>
+      <c r="X41" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="38">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="40">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A42" s="25"/>
-      <c r="B42" s="34" t="s">
+      <c r="A42" s="54"/>
+      <c r="B42" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C42" s="47">
-        <v>0</v>
-      </c>
-      <c r="D42" s="48">
-        <v>0</v>
-      </c>
-      <c r="E42" s="49">
-        <v>0</v>
-      </c>
-      <c r="F42" s="50">
-        <v>0</v>
-      </c>
-      <c r="G42" s="51">
-        <v>0</v>
-      </c>
-      <c r="H42" s="52">
-        <v>0</v>
-      </c>
-      <c r="I42" s="47">
-        <v>0</v>
-      </c>
-      <c r="J42" s="48">
-        <v>0</v>
-      </c>
-      <c r="K42" s="48">
-        <v>0</v>
-      </c>
-      <c r="L42" s="50">
-        <v>0</v>
-      </c>
-      <c r="M42" s="51">
-        <v>0</v>
-      </c>
-      <c r="N42" s="52">
-        <v>0</v>
-      </c>
-      <c r="O42" s="47">
-        <v>0</v>
-      </c>
-      <c r="P42" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q42" s="49">
-        <v>0</v>
-      </c>
-      <c r="R42" s="50">
-        <v>0</v>
-      </c>
-      <c r="S42" s="51">
-        <v>0</v>
-      </c>
-      <c r="T42" s="52">
-        <v>0</v>
-      </c>
-      <c r="U42" s="47">
-        <v>0</v>
-      </c>
-      <c r="V42" s="48">
-        <v>0</v>
-      </c>
-      <c r="W42" s="49">
-        <v>0</v>
-      </c>
-      <c r="X42" s="50">
-        <v>0</v>
-      </c>
-      <c r="Y42" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z42" s="52">
-        <v>0</v>
-      </c>
-      <c r="AA42" s="47">
-        <v>0</v>
-      </c>
-      <c r="AB42" s="48">
-        <v>0</v>
-      </c>
-      <c r="AC42" s="49">
-        <v>0</v>
-      </c>
-      <c r="AD42" s="50">
-        <v>0</v>
-      </c>
-      <c r="AE42" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="52">
+      <c r="C42" s="42">
+        <v>0</v>
+      </c>
+      <c r="D42" s="43">
+        <v>0</v>
+      </c>
+      <c r="E42" s="44">
+        <v>0</v>
+      </c>
+      <c r="F42" s="45">
+        <v>0</v>
+      </c>
+      <c r="G42" s="46">
+        <v>0</v>
+      </c>
+      <c r="H42" s="47">
+        <v>0</v>
+      </c>
+      <c r="I42" s="42">
+        <v>0</v>
+      </c>
+      <c r="J42" s="43">
+        <v>0</v>
+      </c>
+      <c r="K42" s="43">
+        <v>0</v>
+      </c>
+      <c r="L42" s="45">
+        <v>0</v>
+      </c>
+      <c r="M42" s="46">
+        <v>0</v>
+      </c>
+      <c r="N42" s="47">
+        <v>0</v>
+      </c>
+      <c r="O42" s="42">
+        <v>0</v>
+      </c>
+      <c r="P42" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="44">
+        <v>0</v>
+      </c>
+      <c r="R42" s="45">
+        <v>0</v>
+      </c>
+      <c r="S42" s="46">
+        <v>0</v>
+      </c>
+      <c r="T42" s="47">
+        <v>0</v>
+      </c>
+      <c r="U42" s="42">
+        <v>0</v>
+      </c>
+      <c r="V42" s="43">
+        <v>0</v>
+      </c>
+      <c r="W42" s="44">
+        <v>0</v>
+      </c>
+      <c r="X42" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="43">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="44">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="46">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A43" s="25" t="s">
+      <c r="A43" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B43" s="34" t="s">
+      <c r="B43" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C43" s="35">
+      <c r="C43" s="30">
         <v>3.1124748994971831</v>
       </c>
-      <c r="D43" s="36">
+      <c r="D43" s="31">
         <v>4.3011626335213133</v>
       </c>
-      <c r="E43" s="37">
+      <c r="E43" s="32">
         <v>2.8613807855648989</v>
       </c>
-      <c r="F43" s="38">
+      <c r="F43" s="33">
         <v>2.384848003542364</v>
       </c>
-      <c r="G43" s="39">
+      <c r="G43" s="34">
         <v>1.920286436967152</v>
       </c>
-      <c r="H43" s="40">
+      <c r="H43" s="35">
         <v>3.5355339059327382</v>
       </c>
-      <c r="I43" s="35">
+      <c r="I43" s="30">
         <v>3.5707142142714252</v>
       </c>
-      <c r="J43" s="36">
+      <c r="J43" s="31">
         <v>2.9474565306378988</v>
       </c>
-      <c r="K43" s="36">
+      <c r="K43" s="31">
         <v>3.082207001484488</v>
       </c>
-      <c r="L43" s="38">
+      <c r="L43" s="33">
         <v>3.2691742076555048</v>
       </c>
-      <c r="M43" s="39">
+      <c r="M43" s="34">
         <v>2.2776083947860748</v>
       </c>
-      <c r="N43" s="40">
+      <c r="N43" s="35">
         <v>2.384848003542364</v>
       </c>
-      <c r="O43" s="35">
+      <c r="O43" s="30">
         <v>6.0570207197928587</v>
       </c>
-      <c r="P43" s="36">
+      <c r="P43" s="31">
         <v>4.636809247747852</v>
       </c>
-      <c r="Q43" s="37">
+      <c r="Q43" s="32">
         <v>3.9607448794387148</v>
       </c>
-      <c r="R43" s="38">
+      <c r="R43" s="33">
         <v>1.8708286933869711</v>
       </c>
-      <c r="S43" s="39">
+      <c r="S43" s="34">
         <v>1.7853571071357131</v>
       </c>
-      <c r="T43" s="40">
+      <c r="T43" s="35">
         <v>1.089724735885168</v>
       </c>
-      <c r="U43" s="35">
+      <c r="U43" s="30">
         <v>1.2247448713915889</v>
       </c>
-      <c r="V43" s="36">
+      <c r="V43" s="31">
         <v>2.5</v>
       </c>
-      <c r="W43" s="37">
+      <c r="W43" s="32">
         <v>3.4910600109422352</v>
       </c>
-      <c r="X43" s="38">
+      <c r="X43" s="33">
         <v>3.5</v>
       </c>
-      <c r="Y43" s="39">
+      <c r="Y43" s="34">
         <v>5.7608593109014574</v>
       </c>
-      <c r="Z43" s="40">
+      <c r="Z43" s="35">
         <v>4.3874821936960613</v>
       </c>
-      <c r="AA43" s="35">
+      <c r="AA43" s="30">
         <v>3.8405728739343039</v>
       </c>
-      <c r="AB43" s="36">
+      <c r="AB43" s="31">
         <v>1.6583123951776999</v>
       </c>
-      <c r="AC43" s="37">
+      <c r="AC43" s="32">
         <v>1.7853571071357131</v>
       </c>
-      <c r="AD43" s="38">
+      <c r="AD43" s="33">
         <v>8.4409715080670669</v>
       </c>
-      <c r="AE43" s="39">
+      <c r="AE43" s="34">
         <v>7.5166481891864541</v>
       </c>
-      <c r="AF43" s="40">
+      <c r="AF43" s="35">
         <v>7.2929760729074111</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A44" s="25"/>
-      <c r="B44" s="34" t="s">
+      <c r="A44" s="54"/>
+      <c r="B44" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C44" s="41">
+      <c r="C44" s="36">
         <v>48.75</v>
       </c>
-      <c r="D44" s="42">
+      <c r="D44" s="37">
         <v>55</v>
       </c>
-      <c r="E44" s="43">
+      <c r="E44" s="38">
         <v>51.75</v>
       </c>
-      <c r="F44" s="44">
+      <c r="F44" s="39">
         <v>58.75</v>
       </c>
-      <c r="G44" s="45">
+      <c r="G44" s="40">
         <v>55.75</v>
       </c>
-      <c r="H44" s="46">
+      <c r="H44" s="41">
         <v>56</v>
       </c>
-      <c r="I44" s="41">
+      <c r="I44" s="36">
         <v>56.5</v>
       </c>
-      <c r="J44" s="42">
+      <c r="J44" s="37">
         <v>54.75</v>
       </c>
-      <c r="K44" s="42">
+      <c r="K44" s="37">
         <v>60</v>
       </c>
-      <c r="L44" s="44">
+      <c r="L44" s="39">
         <v>55.75</v>
       </c>
-      <c r="M44" s="45">
+      <c r="M44" s="40">
         <v>55.25</v>
       </c>
-      <c r="N44" s="46">
+      <c r="N44" s="41">
         <v>54.25</v>
       </c>
-      <c r="O44" s="41">
+      <c r="O44" s="36">
         <v>50.75</v>
       </c>
-      <c r="P44" s="42">
+      <c r="P44" s="37">
         <v>49</v>
       </c>
-      <c r="Q44" s="43">
+      <c r="Q44" s="38">
         <v>49.25</v>
       </c>
-      <c r="R44" s="44">
+      <c r="R44" s="39">
         <v>61</v>
       </c>
-      <c r="S44" s="45">
+      <c r="S44" s="40">
         <v>62.25</v>
       </c>
-      <c r="T44" s="46">
+      <c r="T44" s="41">
         <v>62.25</v>
       </c>
-      <c r="U44" s="41">
+      <c r="U44" s="36">
         <v>60</v>
       </c>
-      <c r="V44" s="42">
+      <c r="V44" s="37">
         <v>57.5</v>
       </c>
-      <c r="W44" s="43">
+      <c r="W44" s="38">
         <v>58.75</v>
       </c>
-      <c r="X44" s="44">
+      <c r="X44" s="39">
         <v>55.5</v>
       </c>
-      <c r="Y44" s="45">
+      <c r="Y44" s="40">
         <v>49.75</v>
       </c>
-      <c r="Z44" s="46">
+      <c r="Z44" s="41">
         <v>51.5</v>
       </c>
-      <c r="AA44" s="41">
+      <c r="AA44" s="36">
         <v>55.5</v>
       </c>
-      <c r="AB44" s="42">
+      <c r="AB44" s="37">
         <v>57.5</v>
       </c>
-      <c r="AC44" s="43">
+      <c r="AC44" s="38">
         <v>55.75</v>
       </c>
-      <c r="AD44" s="44">
+      <c r="AD44" s="39">
         <v>44.5</v>
       </c>
-      <c r="AE44" s="45">
+      <c r="AE44" s="40">
         <v>43</v>
       </c>
-      <c r="AF44" s="46">
+      <c r="AF44" s="41">
         <v>45.25</v>
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A45" s="25"/>
-      <c r="B45" s="56" t="s">
+      <c r="A45" s="54"/>
+      <c r="B45" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C45" s="57">
+      <c r="C45" s="49">
         <v>7.5174825174825166</v>
       </c>
-      <c r="D45" s="58">
+      <c r="D45" s="50">
         <v>6.4685314685314683</v>
       </c>
-      <c r="E45" s="59">
+      <c r="E45" s="51">
         <v>8.8286713286713283</v>
       </c>
-      <c r="F45" s="57">
+      <c r="F45" s="49">
         <v>1.8356643356643361</v>
       </c>
-      <c r="G45" s="58">
+      <c r="G45" s="50">
         <v>1.8356643356643361</v>
       </c>
-      <c r="H45" s="59">
+      <c r="H45" s="51">
         <v>2.7972027972027971</v>
       </c>
-      <c r="I45" s="57">
+      <c r="I45" s="49">
         <v>5.6818181818181817</v>
       </c>
-      <c r="J45" s="58">
+      <c r="J45" s="50">
         <v>5.3321678321678316</v>
       </c>
-      <c r="K45" s="58">
+      <c r="K45" s="50">
         <v>7.255244755244755</v>
       </c>
-      <c r="L45" s="57">
+      <c r="L45" s="49">
         <v>4.4580419580419584</v>
       </c>
-      <c r="M45" s="58">
+      <c r="M45" s="50">
         <v>2.884615384615385</v>
       </c>
-      <c r="N45" s="59">
+      <c r="N45" s="51">
         <v>2.622377622377623</v>
       </c>
-      <c r="O45" s="57">
+      <c r="O45" s="49">
         <v>7.8671328671328684</v>
       </c>
-      <c r="P45" s="58">
+      <c r="P45" s="50">
         <v>5.41958041958042</v>
       </c>
-      <c r="Q45" s="59">
+      <c r="Q45" s="51">
         <v>5.9440559440559442</v>
       </c>
-      <c r="R45" s="57">
-        <v>0</v>
-      </c>
-      <c r="S45" s="58">
+      <c r="R45" s="49">
+        <v>0</v>
+      </c>
+      <c r="S45" s="50">
         <v>0.17482517482517479</v>
       </c>
-      <c r="T45" s="59">
-        <v>0</v>
-      </c>
-      <c r="U45" s="57">
+      <c r="T45" s="51">
+        <v>0</v>
+      </c>
+      <c r="U45" s="49">
         <v>5.1573426573426566</v>
       </c>
-      <c r="V45" s="58">
+      <c r="V45" s="50">
         <v>5.7692307692307701</v>
       </c>
-      <c r="W45" s="59">
+      <c r="W45" s="51">
         <v>6.0314685314685317</v>
       </c>
-      <c r="X45" s="57">
+      <c r="X45" s="49">
         <v>13.63636363636364</v>
       </c>
-      <c r="Y45" s="58">
+      <c r="Y45" s="50">
         <v>13.81118881118881</v>
       </c>
-      <c r="Z45" s="59">
+      <c r="Z45" s="51">
         <v>15.38461538461538</v>
       </c>
-      <c r="AA45" s="57">
-        <v>0</v>
-      </c>
-      <c r="AB45" s="58">
+      <c r="AA45" s="49">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="50">
         <v>2.185314685314685</v>
       </c>
-      <c r="AC45" s="59">
+      <c r="AC45" s="51">
         <v>4.6328671328671334</v>
       </c>
-      <c r="AD45" s="57">
+      <c r="AD45" s="49">
         <v>28.93356643356643</v>
       </c>
-      <c r="AE45" s="58">
+      <c r="AE45" s="50">
         <v>28.4965034965035</v>
       </c>
-      <c r="AF45" s="59">
+      <c r="AF45" s="51">
         <v>32.867132867132867</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A46" s="25"/>
-      <c r="B46" s="34" t="s">
+      <c r="A46" s="54"/>
+      <c r="B46" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C46" s="41">
-        <v>0</v>
-      </c>
-      <c r="D46" s="42">
-        <v>0</v>
-      </c>
-      <c r="E46" s="43">
-        <v>0</v>
-      </c>
-      <c r="F46" s="44">
-        <v>0</v>
-      </c>
-      <c r="G46" s="45">
-        <v>0</v>
-      </c>
-      <c r="H46" s="46">
-        <v>0</v>
-      </c>
-      <c r="I46" s="41">
-        <v>0</v>
-      </c>
-      <c r="J46" s="42">
-        <v>0</v>
-      </c>
-      <c r="K46" s="42">
-        <v>0</v>
-      </c>
-      <c r="L46" s="44">
-        <v>0</v>
-      </c>
-      <c r="M46" s="45">
-        <v>0</v>
-      </c>
-      <c r="N46" s="46">
-        <v>0</v>
-      </c>
-      <c r="O46" s="41">
-        <v>0</v>
-      </c>
-      <c r="P46" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="43">
-        <v>0</v>
-      </c>
-      <c r="R46" s="44">
-        <v>0</v>
-      </c>
-      <c r="S46" s="45">
-        <v>0</v>
-      </c>
-      <c r="T46" s="46">
-        <v>0</v>
-      </c>
-      <c r="U46" s="41">
-        <v>0</v>
-      </c>
-      <c r="V46" s="42">
-        <v>0</v>
-      </c>
-      <c r="W46" s="43">
-        <v>0</v>
-      </c>
-      <c r="X46" s="44">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="41">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="42">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="43">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="44">
+      <c r="C46" s="36">
+        <v>0</v>
+      </c>
+      <c r="D46" s="37">
+        <v>0</v>
+      </c>
+      <c r="E46" s="38">
+        <v>0</v>
+      </c>
+      <c r="F46" s="39">
+        <v>0</v>
+      </c>
+      <c r="G46" s="40">
+        <v>0</v>
+      </c>
+      <c r="H46" s="41">
+        <v>0</v>
+      </c>
+      <c r="I46" s="36">
+        <v>0</v>
+      </c>
+      <c r="J46" s="37">
+        <v>0</v>
+      </c>
+      <c r="K46" s="37">
+        <v>0</v>
+      </c>
+      <c r="L46" s="39">
+        <v>0</v>
+      </c>
+      <c r="M46" s="40">
+        <v>0</v>
+      </c>
+      <c r="N46" s="41">
+        <v>0</v>
+      </c>
+      <c r="O46" s="36">
+        <v>0</v>
+      </c>
+      <c r="P46" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="38">
+        <v>0</v>
+      </c>
+      <c r="R46" s="39">
+        <v>0</v>
+      </c>
+      <c r="S46" s="40">
+        <v>0</v>
+      </c>
+      <c r="T46" s="41">
+        <v>0</v>
+      </c>
+      <c r="U46" s="36">
+        <v>0</v>
+      </c>
+      <c r="V46" s="37">
+        <v>0</v>
+      </c>
+      <c r="W46" s="38">
+        <v>0</v>
+      </c>
+      <c r="X46" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="38">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="39">
         <v>1</v>
       </c>
-      <c r="AE46" s="45">
+      <c r="AE46" s="40">
         <v>1</v>
       </c>
-      <c r="AF46" s="46">
+      <c r="AF46" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A47" s="25"/>
-      <c r="B47" s="34" t="s">
+      <c r="A47" s="54"/>
+      <c r="B47" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C47" s="47">
-        <v>0</v>
-      </c>
-      <c r="D47" s="48">
-        <v>0</v>
-      </c>
-      <c r="E47" s="49">
-        <v>0</v>
-      </c>
-      <c r="F47" s="50">
-        <v>0</v>
-      </c>
-      <c r="G47" s="51">
-        <v>0</v>
-      </c>
-      <c r="H47" s="52">
-        <v>0</v>
-      </c>
-      <c r="I47" s="47">
-        <v>0</v>
-      </c>
-      <c r="J47" s="48">
-        <v>0</v>
-      </c>
-      <c r="K47" s="48">
-        <v>0</v>
-      </c>
-      <c r="L47" s="50">
-        <v>0</v>
-      </c>
-      <c r="M47" s="51">
-        <v>0</v>
-      </c>
-      <c r="N47" s="52">
-        <v>0</v>
-      </c>
-      <c r="O47" s="47">
+      <c r="C47" s="42">
+        <v>0</v>
+      </c>
+      <c r="D47" s="43">
+        <v>0</v>
+      </c>
+      <c r="E47" s="44">
+        <v>0</v>
+      </c>
+      <c r="F47" s="45">
+        <v>0</v>
+      </c>
+      <c r="G47" s="46">
+        <v>0</v>
+      </c>
+      <c r="H47" s="47">
+        <v>0</v>
+      </c>
+      <c r="I47" s="42">
+        <v>0</v>
+      </c>
+      <c r="J47" s="43">
+        <v>0</v>
+      </c>
+      <c r="K47" s="43">
+        <v>0</v>
+      </c>
+      <c r="L47" s="45">
+        <v>0</v>
+      </c>
+      <c r="M47" s="46">
+        <v>0</v>
+      </c>
+      <c r="N47" s="47">
+        <v>0</v>
+      </c>
+      <c r="O47" s="42">
         <v>1</v>
       </c>
-      <c r="P47" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="49">
-        <v>0</v>
-      </c>
-      <c r="R47" s="50">
-        <v>0</v>
-      </c>
-      <c r="S47" s="51">
-        <v>0</v>
-      </c>
-      <c r="T47" s="52">
-        <v>0</v>
-      </c>
-      <c r="U47" s="47">
-        <v>0</v>
-      </c>
-      <c r="V47" s="48">
-        <v>0</v>
-      </c>
-      <c r="W47" s="49">
-        <v>0</v>
-      </c>
-      <c r="X47" s="50">
-        <v>0</v>
-      </c>
-      <c r="Y47" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="52">
+      <c r="P47" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="44">
+        <v>0</v>
+      </c>
+      <c r="R47" s="45">
+        <v>0</v>
+      </c>
+      <c r="S47" s="46">
+        <v>0</v>
+      </c>
+      <c r="T47" s="47">
+        <v>0</v>
+      </c>
+      <c r="U47" s="42">
+        <v>0</v>
+      </c>
+      <c r="V47" s="43">
+        <v>0</v>
+      </c>
+      <c r="W47" s="44">
+        <v>0</v>
+      </c>
+      <c r="X47" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="47">
         <v>2</v>
       </c>
-      <c r="AA47" s="47">
-        <v>0</v>
-      </c>
-      <c r="AB47" s="48">
-        <v>0</v>
-      </c>
-      <c r="AC47" s="49">
-        <v>0</v>
-      </c>
-      <c r="AD47" s="50">
+      <c r="AA47" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="43">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="44">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="45">
         <v>2</v>
       </c>
-      <c r="AE47" s="51">
+      <c r="AE47" s="46">
         <v>2</v>
       </c>
-      <c r="AF47" s="52">
+      <c r="AF47" s="47">
         <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A48" s="25" t="s">
+      <c r="A48" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="34" t="s">
+      <c r="B48" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="35">
+      <c r="C48" s="30">
         <v>3.905124837953327</v>
       </c>
-      <c r="D48" s="36">
+      <c r="D48" s="31">
         <v>3.6314597615834869</v>
       </c>
-      <c r="E48" s="37">
+      <c r="E48" s="32">
         <v>2.0615528128088298</v>
       </c>
-      <c r="F48" s="38">
+      <c r="F48" s="33">
         <v>4.0620192023179804</v>
       </c>
-      <c r="G48" s="39">
+      <c r="G48" s="34">
         <v>2.1213203435596419</v>
       </c>
-      <c r="H48" s="40">
+      <c r="H48" s="35">
         <v>3.3911649915626341</v>
       </c>
-      <c r="I48" s="35">
+      <c r="I48" s="30">
         <v>2.046338192968113</v>
       </c>
-      <c r="J48" s="36">
+      <c r="J48" s="31">
         <v>3.7666297933298409</v>
       </c>
-      <c r="K48" s="36">
+      <c r="K48" s="31">
         <v>1.7853571071357131</v>
       </c>
-      <c r="L48" s="38">
+      <c r="L48" s="33">
         <v>5.9581876439064922</v>
       </c>
-      <c r="M48" s="39">
+      <c r="M48" s="34">
         <v>8.1662414855305379</v>
       </c>
-      <c r="N48" s="40">
+      <c r="N48" s="35">
         <v>6.7453687816160208</v>
       </c>
-      <c r="O48" s="35">
+      <c r="O48" s="30">
         <v>4.3803538669838078</v>
       </c>
-      <c r="P48" s="36">
+      <c r="P48" s="31">
         <v>5.8949130612757976</v>
       </c>
-      <c r="Q48" s="37">
+      <c r="Q48" s="32">
         <v>4.6569840025492892</v>
       </c>
-      <c r="R48" s="38">
+      <c r="R48" s="33">
         <v>4.3011626335213133</v>
       </c>
-      <c r="S48" s="39">
+      <c r="S48" s="34">
         <v>6.5383484153110114</v>
       </c>
-      <c r="T48" s="40">
+      <c r="T48" s="35">
         <v>6.9417216884574104</v>
       </c>
-      <c r="U48" s="35">
+      <c r="U48" s="30">
         <v>13.95304626237583</v>
       </c>
-      <c r="V48" s="36">
+      <c r="V48" s="31">
         <v>12.98797520786054</v>
       </c>
-      <c r="W48" s="37">
+      <c r="W48" s="32">
         <v>13.46291201783626</v>
       </c>
-      <c r="X48" s="38">
+      <c r="X48" s="33">
         <v>4.6569840025492892</v>
       </c>
-      <c r="Y48" s="39">
+      <c r="Y48" s="34">
         <v>6.0621778264910704</v>
       </c>
-      <c r="Z48" s="40">
+      <c r="Z48" s="35">
         <v>5.5396299515400846</v>
       </c>
-      <c r="AA48" s="35">
+      <c r="AA48" s="30">
         <v>2.1213203435596419</v>
       </c>
-      <c r="AB48" s="36">
+      <c r="AB48" s="31">
         <v>0.82915619758884995</v>
       </c>
-      <c r="AC48" s="37">
+      <c r="AC48" s="32">
         <v>2.0615528128088298</v>
       </c>
-      <c r="AD48" s="38">
+      <c r="AD48" s="33">
         <v>2</v>
       </c>
-      <c r="AE48" s="39">
+      <c r="AE48" s="34">
         <v>5</v>
       </c>
-      <c r="AF48" s="40">
+      <c r="AF48" s="35">
         <v>2.9474565306378988</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A49" s="25"/>
-      <c r="B49" s="34" t="s">
+      <c r="A49" s="54"/>
+      <c r="B49" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C49" s="41">
+      <c r="C49" s="36">
         <v>52.5</v>
       </c>
-      <c r="D49" s="42">
+      <c r="D49" s="37">
         <v>58.75</v>
       </c>
-      <c r="E49" s="43">
+      <c r="E49" s="38">
         <v>55.5</v>
       </c>
-      <c r="F49" s="44">
+      <c r="F49" s="39">
         <v>59</v>
       </c>
-      <c r="G49" s="45">
+      <c r="G49" s="40">
         <v>63</v>
       </c>
-      <c r="H49" s="46">
+      <c r="H49" s="41">
         <v>60</v>
       </c>
-      <c r="I49" s="41">
+      <c r="I49" s="36">
         <v>58.25</v>
       </c>
-      <c r="J49" s="42">
+      <c r="J49" s="37">
         <v>57.25</v>
       </c>
-      <c r="K49" s="42">
+      <c r="K49" s="37">
         <v>62.75</v>
       </c>
-      <c r="L49" s="44">
+      <c r="L49" s="39">
         <v>47</v>
       </c>
-      <c r="M49" s="45">
+      <c r="M49" s="40">
         <v>49.25</v>
       </c>
-      <c r="N49" s="46">
+      <c r="N49" s="41">
         <v>49</v>
       </c>
-      <c r="O49" s="41">
+      <c r="O49" s="36">
         <v>50.25</v>
       </c>
-      <c r="P49" s="42">
+      <c r="P49" s="37">
         <v>46.5</v>
       </c>
-      <c r="Q49" s="43">
+      <c r="Q49" s="38">
         <v>45.25</v>
       </c>
-      <c r="R49" s="44">
+      <c r="R49" s="39">
         <v>56</v>
       </c>
-      <c r="S49" s="45">
+      <c r="S49" s="40">
         <v>53.5</v>
       </c>
-      <c r="T49" s="46">
+      <c r="T49" s="41">
         <v>51.25</v>
       </c>
-      <c r="U49" s="41">
+      <c r="U49" s="36">
         <v>51.75</v>
       </c>
-      <c r="V49" s="42">
+      <c r="V49" s="37">
         <v>49.75</v>
       </c>
-      <c r="W49" s="43">
+      <c r="W49" s="38">
         <v>52.5</v>
       </c>
-      <c r="X49" s="44">
+      <c r="X49" s="39">
         <v>50.75</v>
       </c>
-      <c r="Y49" s="45">
+      <c r="Y49" s="40">
         <v>48.5</v>
       </c>
-      <c r="Z49" s="46">
+      <c r="Z49" s="41">
         <v>47.75</v>
       </c>
-      <c r="AA49" s="41">
+      <c r="AA49" s="36">
         <v>60</v>
       </c>
-      <c r="AB49" s="42">
+      <c r="AB49" s="37">
         <v>57.75</v>
       </c>
-      <c r="AC49" s="43">
+      <c r="AC49" s="38">
         <v>57.5</v>
       </c>
-      <c r="AD49" s="44">
+      <c r="AD49" s="39">
         <v>55</v>
       </c>
-      <c r="AE49" s="45">
+      <c r="AE49" s="40">
         <v>55</v>
       </c>
-      <c r="AF49" s="46">
+      <c r="AF49" s="41">
         <v>53.75</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A50" s="25"/>
-      <c r="B50" s="56" t="s">
+      <c r="A50" s="54"/>
+      <c r="B50" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="57">
+      <c r="C50" s="49">
         <v>7.6923076923076916</v>
       </c>
-      <c r="D50" s="58">
+      <c r="D50" s="50">
         <v>8.4790209790209783</v>
       </c>
-      <c r="E50" s="59">
+      <c r="E50" s="51">
         <v>7.1678321678321666</v>
       </c>
-      <c r="F50" s="57">
+      <c r="F50" s="49">
         <v>3.6713286713286708</v>
       </c>
-      <c r="G50" s="58">
+      <c r="G50" s="50">
         <v>3.05944055944056</v>
       </c>
-      <c r="H50" s="59">
+      <c r="H50" s="51">
         <v>2.185314685314685</v>
       </c>
-      <c r="I50" s="57">
+      <c r="I50" s="49">
         <v>3.1468531468531471</v>
       </c>
-      <c r="J50" s="58">
+      <c r="J50" s="50">
         <v>0.26223776223776218</v>
       </c>
-      <c r="K50" s="58">
+      <c r="K50" s="50">
         <v>2.9720279720279721</v>
       </c>
-      <c r="L50" s="57">
+      <c r="L50" s="49">
         <v>22.98951048951049</v>
       </c>
-      <c r="M50" s="58">
+      <c r="M50" s="50">
         <v>24.38811188811189</v>
       </c>
-      <c r="N50" s="59">
+      <c r="N50" s="51">
         <v>15.55944055944056</v>
       </c>
-      <c r="O50" s="57">
+      <c r="O50" s="49">
         <v>25.26223776223776</v>
       </c>
-      <c r="P50" s="58">
+      <c r="P50" s="50">
         <v>23.33916083916084</v>
       </c>
-      <c r="Q50" s="59">
+      <c r="Q50" s="51">
         <v>23.86363636363636</v>
       </c>
-      <c r="R50" s="57">
+      <c r="R50" s="49">
         <v>12.23776223776224</v>
       </c>
-      <c r="S50" s="58">
+      <c r="S50" s="50">
         <v>12.06293706293706</v>
       </c>
-      <c r="T50" s="59">
+      <c r="T50" s="51">
         <v>11.88811188811189</v>
       </c>
-      <c r="U50" s="57">
+      <c r="U50" s="49">
         <v>26.31118881118881</v>
       </c>
-      <c r="V50" s="58">
+      <c r="V50" s="50">
         <v>26.57342657342657</v>
       </c>
-      <c r="W50" s="59">
+      <c r="W50" s="51">
         <v>28.23426573426573</v>
       </c>
-      <c r="X50" s="57">
+      <c r="X50" s="49">
         <v>14.86013986013986</v>
       </c>
-      <c r="Y50" s="58">
+      <c r="Y50" s="50">
         <v>16.34615384615385</v>
       </c>
-      <c r="Z50" s="59">
+      <c r="Z50" s="51">
         <v>18.96853146853147</v>
       </c>
-      <c r="AA50" s="57">
+      <c r="AA50" s="49">
         <v>0.87412587412587417</v>
       </c>
-      <c r="AB50" s="58">
+      <c r="AB50" s="50">
         <v>2.4475524475524471</v>
       </c>
-      <c r="AC50" s="59">
+      <c r="AC50" s="51">
         <v>2.70979020979021</v>
       </c>
-      <c r="AD50" s="57">
+      <c r="AD50" s="49">
         <v>13.11188811188811</v>
       </c>
-      <c r="AE50" s="58">
+      <c r="AE50" s="50">
         <v>13.28671328671329</v>
       </c>
-      <c r="AF50" s="59">
+      <c r="AF50" s="51">
         <v>13.98601398601398</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A51" s="25"/>
-      <c r="B51" s="34" t="s">
+      <c r="A51" s="54"/>
+      <c r="B51" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C51" s="41">
-        <v>0</v>
-      </c>
-      <c r="D51" s="42">
-        <v>0</v>
-      </c>
-      <c r="E51" s="43">
-        <v>0</v>
-      </c>
-      <c r="F51" s="44">
-        <v>0</v>
-      </c>
-      <c r="G51" s="45">
-        <v>0</v>
-      </c>
-      <c r="H51" s="46">
-        <v>0</v>
-      </c>
-      <c r="I51" s="41">
-        <v>0</v>
-      </c>
-      <c r="J51" s="42">
-        <v>0</v>
-      </c>
-      <c r="K51" s="42">
-        <v>0</v>
-      </c>
-      <c r="L51" s="44">
-        <v>0</v>
-      </c>
-      <c r="M51" s="45">
-        <v>0</v>
-      </c>
-      <c r="N51" s="46">
-        <v>0</v>
-      </c>
-      <c r="O51" s="41">
+      <c r="C51" s="36">
+        <v>0</v>
+      </c>
+      <c r="D51" s="37">
+        <v>0</v>
+      </c>
+      <c r="E51" s="38">
+        <v>0</v>
+      </c>
+      <c r="F51" s="39">
+        <v>0</v>
+      </c>
+      <c r="G51" s="40">
+        <v>0</v>
+      </c>
+      <c r="H51" s="41">
+        <v>0</v>
+      </c>
+      <c r="I51" s="36">
+        <v>0</v>
+      </c>
+      <c r="J51" s="37">
+        <v>0</v>
+      </c>
+      <c r="K51" s="37">
+        <v>0</v>
+      </c>
+      <c r="L51" s="39">
+        <v>0</v>
+      </c>
+      <c r="M51" s="40">
+        <v>0</v>
+      </c>
+      <c r="N51" s="41">
+        <v>0</v>
+      </c>
+      <c r="O51" s="36">
         <v>1</v>
       </c>
-      <c r="P51" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="43">
-        <v>0</v>
-      </c>
-      <c r="R51" s="44">
-        <v>0</v>
-      </c>
-      <c r="S51" s="45">
-        <v>0</v>
-      </c>
-      <c r="T51" s="46">
-        <v>0</v>
-      </c>
-      <c r="U51" s="41">
+      <c r="P51" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="38">
+        <v>0</v>
+      </c>
+      <c r="R51" s="39">
+        <v>0</v>
+      </c>
+      <c r="S51" s="40">
+        <v>0</v>
+      </c>
+      <c r="T51" s="41">
+        <v>0</v>
+      </c>
+      <c r="U51" s="36">
         <v>1</v>
       </c>
-      <c r="V51" s="42">
+      <c r="V51" s="37">
         <v>1</v>
       </c>
-      <c r="W51" s="43">
+      <c r="W51" s="38">
         <v>2</v>
       </c>
-      <c r="X51" s="44">
-        <v>0</v>
-      </c>
-      <c r="Y51" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA51" s="41">
-        <v>0</v>
-      </c>
-      <c r="AB51" s="42">
-        <v>0</v>
-      </c>
-      <c r="AC51" s="43">
-        <v>0</v>
-      </c>
-      <c r="AD51" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE51" s="45">
-        <v>0</v>
-      </c>
-      <c r="AF51" s="46">
+      <c r="X51" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="38">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="40">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A52" s="25"/>
-      <c r="B52" s="34" t="s">
+      <c r="A52" s="54"/>
+      <c r="B52" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C52" s="47">
-        <v>0</v>
-      </c>
-      <c r="D52" s="48">
-        <v>0</v>
-      </c>
-      <c r="E52" s="49">
-        <v>0</v>
-      </c>
-      <c r="F52" s="50">
-        <v>0</v>
-      </c>
-      <c r="G52" s="51">
-        <v>0</v>
-      </c>
-      <c r="H52" s="52">
-        <v>0</v>
-      </c>
-      <c r="I52" s="47">
-        <v>0</v>
-      </c>
-      <c r="J52" s="48">
-        <v>0</v>
-      </c>
-      <c r="K52" s="48">
-        <v>0</v>
-      </c>
-      <c r="L52" s="50">
+      <c r="C52" s="42">
+        <v>0</v>
+      </c>
+      <c r="D52" s="43">
+        <v>0</v>
+      </c>
+      <c r="E52" s="44">
+        <v>0</v>
+      </c>
+      <c r="F52" s="45">
+        <v>0</v>
+      </c>
+      <c r="G52" s="46">
+        <v>0</v>
+      </c>
+      <c r="H52" s="47">
+        <v>0</v>
+      </c>
+      <c r="I52" s="42">
+        <v>0</v>
+      </c>
+      <c r="J52" s="43">
+        <v>0</v>
+      </c>
+      <c r="K52" s="43">
+        <v>0</v>
+      </c>
+      <c r="L52" s="45">
         <v>2</v>
       </c>
-      <c r="M52" s="51">
+      <c r="M52" s="46">
         <v>2</v>
       </c>
-      <c r="N52" s="52">
+      <c r="N52" s="47">
         <v>1</v>
       </c>
-      <c r="O52" s="47">
+      <c r="O52" s="42">
         <v>2</v>
       </c>
-      <c r="P52" s="48">
+      <c r="P52" s="43">
         <v>3</v>
       </c>
-      <c r="Q52" s="49">
+      <c r="Q52" s="44">
         <v>3</v>
       </c>
-      <c r="R52" s="50">
+      <c r="R52" s="45">
         <v>1</v>
       </c>
-      <c r="S52" s="51">
+      <c r="S52" s="46">
         <v>1</v>
       </c>
-      <c r="T52" s="52">
+      <c r="T52" s="47">
         <v>1</v>
       </c>
-      <c r="U52" s="47">
+      <c r="U52" s="42">
         <v>1</v>
       </c>
-      <c r="V52" s="48">
+      <c r="V52" s="43">
         <v>1</v>
       </c>
-      <c r="W52" s="49">
-        <v>0</v>
-      </c>
-      <c r="X52" s="50">
+      <c r="W52" s="44">
+        <v>0</v>
+      </c>
+      <c r="X52" s="45">
         <v>2</v>
       </c>
-      <c r="Y52" s="51">
+      <c r="Y52" s="46">
         <v>2</v>
       </c>
-      <c r="Z52" s="52">
+      <c r="Z52" s="47">
         <v>2</v>
       </c>
-      <c r="AA52" s="47">
-        <v>0</v>
-      </c>
-      <c r="AB52" s="48">
-        <v>0</v>
-      </c>
-      <c r="AC52" s="49">
-        <v>0</v>
-      </c>
-      <c r="AD52" s="50">
+      <c r="AA52" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="43">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="44">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="45">
         <v>1</v>
       </c>
-      <c r="AE52" s="51">
+      <c r="AE52" s="46">
         <v>1</v>
       </c>
-      <c r="AF52" s="52">
+      <c r="AF52" s="47">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A53" s="25" t="s">
+      <c r="A53" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="B53" s="34" t="s">
+      <c r="B53" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="C53" s="35">
+      <c r="C53" s="30">
         <v>3.3911649915626341</v>
       </c>
-      <c r="D53" s="36">
+      <c r="D53" s="31">
         <v>7.3824115301167001</v>
       </c>
-      <c r="E53" s="37">
+      <c r="E53" s="32">
         <v>6</v>
       </c>
-      <c r="F53" s="38">
+      <c r="F53" s="33">
         <v>2.384848003542364</v>
       </c>
-      <c r="G53" s="39">
+      <c r="G53" s="34">
         <v>1.1180339887498949</v>
       </c>
-      <c r="H53" s="40">
+      <c r="H53" s="35">
         <v>4.0620192023179804</v>
       </c>
-      <c r="I53" s="35">
+      <c r="I53" s="30">
         <v>1.920286436967152</v>
       </c>
-      <c r="J53" s="36">
+      <c r="J53" s="31">
         <v>2.6809513236909019</v>
       </c>
-      <c r="K53" s="36">
+      <c r="K53" s="31">
         <v>5.7662812973353983</v>
       </c>
-      <c r="L53" s="38">
+      <c r="L53" s="33">
         <v>4.6029881598804918</v>
       </c>
-      <c r="M53" s="39">
+      <c r="M53" s="34">
         <v>3.6314597615834869</v>
       </c>
-      <c r="N53" s="40">
+      <c r="N53" s="35">
         <v>3.2691742076555048</v>
       </c>
-      <c r="O53" s="35">
+      <c r="O53" s="30">
         <v>2.5</v>
       </c>
-      <c r="P53" s="36">
+      <c r="P53" s="31">
         <v>1.299038105676658</v>
       </c>
-      <c r="Q53" s="37">
+      <c r="Q53" s="32">
         <v>2.3452078799117149</v>
       </c>
-      <c r="R53" s="38">
+      <c r="R53" s="33">
         <v>9.4174041009186809</v>
       </c>
-      <c r="S53" s="39">
+      <c r="S53" s="34">
         <v>7.1763500472036617</v>
       </c>
-      <c r="T53" s="40">
+      <c r="T53" s="35">
         <v>9.4174041009186809</v>
       </c>
-      <c r="U53" s="35">
+      <c r="U53" s="30">
         <v>2.772634126602354</v>
       </c>
-      <c r="V53" s="36">
+      <c r="V53" s="31">
         <v>2.9154759474226499</v>
       </c>
-      <c r="W53" s="37">
+      <c r="W53" s="32">
         <v>1.8708286933869711</v>
       </c>
-      <c r="X53" s="38">
+      <c r="X53" s="33">
         <v>4.3011626335213133</v>
       </c>
-      <c r="Y53" s="39">
+      <c r="Y53" s="34">
         <v>3.082207001484488</v>
       </c>
-      <c r="Z53" s="40">
+      <c r="Z53" s="35">
         <v>4.815340071064556</v>
       </c>
-      <c r="AA53" s="35">
+      <c r="AA53" s="30">
         <v>2.6809513236909019</v>
       </c>
-      <c r="AB53" s="36">
+      <c r="AB53" s="31">
         <v>2.046338192968113</v>
       </c>
-      <c r="AC53" s="37">
+      <c r="AC53" s="32">
         <v>1.2247448713915889</v>
       </c>
-      <c r="AD53" s="38">
+      <c r="AD53" s="33">
         <v>3.4910600109422352</v>
       </c>
-      <c r="AE53" s="39">
+      <c r="AE53" s="34">
         <v>5.7608593109014574</v>
       </c>
-      <c r="AF53" s="40">
+      <c r="AF53" s="35">
         <v>2.2912878474779199</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A54" s="25"/>
-      <c r="B54" s="34" t="s">
+      <c r="A54" s="54"/>
+      <c r="B54" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="C54" s="41">
+      <c r="C54" s="36">
         <v>52</v>
       </c>
-      <c r="D54" s="42">
+      <c r="D54" s="37">
         <v>58</v>
       </c>
-      <c r="E54" s="43">
+      <c r="E54" s="38">
         <v>55</v>
       </c>
-      <c r="F54" s="44">
+      <c r="F54" s="39">
         <v>58.25</v>
       </c>
-      <c r="G54" s="45">
+      <c r="G54" s="40">
         <v>60.5</v>
       </c>
-      <c r="H54" s="46">
+      <c r="H54" s="41">
         <v>60</v>
       </c>
-      <c r="I54" s="41">
+      <c r="I54" s="36">
         <v>58.25</v>
       </c>
-      <c r="J54" s="42">
+      <c r="J54" s="37">
         <v>59.25</v>
       </c>
-      <c r="K54" s="42">
+      <c r="K54" s="37">
         <v>64.5</v>
       </c>
-      <c r="L54" s="44">
+      <c r="L54" s="39">
         <v>63.25</v>
       </c>
-      <c r="M54" s="45">
+      <c r="M54" s="40">
         <v>63.25</v>
       </c>
-      <c r="N54" s="46">
+      <c r="N54" s="41">
         <v>62.75</v>
       </c>
-      <c r="O54" s="41">
+      <c r="O54" s="36">
         <v>56.5</v>
       </c>
-      <c r="P54" s="42">
+      <c r="P54" s="37">
         <v>53.25</v>
       </c>
-      <c r="Q54" s="43">
+      <c r="Q54" s="38">
         <v>53</v>
       </c>
-      <c r="R54" s="44">
+      <c r="R54" s="39">
         <v>57.75</v>
       </c>
-      <c r="S54" s="45">
+      <c r="S54" s="40">
         <v>55</v>
       </c>
-      <c r="T54" s="46">
+      <c r="T54" s="41">
         <v>53.75</v>
       </c>
-      <c r="U54" s="41">
+      <c r="U54" s="36">
         <v>62.25</v>
       </c>
-      <c r="V54" s="42">
+      <c r="V54" s="37">
         <v>60</v>
       </c>
-      <c r="W54" s="43">
+      <c r="W54" s="38">
         <v>62</v>
       </c>
-      <c r="X54" s="44">
+      <c r="X54" s="39">
         <v>57</v>
       </c>
-      <c r="Y54" s="45">
+      <c r="Y54" s="40">
         <v>52</v>
       </c>
-      <c r="Z54" s="46">
+      <c r="Z54" s="41">
         <v>54.25</v>
       </c>
-      <c r="AA54" s="41">
+      <c r="AA54" s="36">
         <v>62.75</v>
       </c>
-      <c r="AB54" s="42">
+      <c r="AB54" s="37">
         <v>60.25</v>
       </c>
-      <c r="AC54" s="43">
+      <c r="AC54" s="38">
         <v>60</v>
       </c>
-      <c r="AD54" s="44">
+      <c r="AD54" s="39">
         <v>56.75</v>
       </c>
-      <c r="AE54" s="45">
+      <c r="AE54" s="40">
         <v>56.25</v>
       </c>
-      <c r="AF54" s="46">
+      <c r="AF54" s="41">
         <v>57.5</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A55" s="25"/>
-      <c r="B55" s="56" t="s">
+      <c r="A55" s="54"/>
+      <c r="B55" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C55" s="57">
+      <c r="C55" s="49">
         <v>5.7692307692307692</v>
       </c>
-      <c r="D55" s="58">
+      <c r="D55" s="50">
         <v>6.2937062937062942</v>
       </c>
-      <c r="E55" s="59">
+      <c r="E55" s="51">
         <v>5.9440559440559442</v>
       </c>
-      <c r="F55" s="57">
+      <c r="F55" s="49">
         <v>2.0979020979020979</v>
       </c>
-      <c r="G55" s="58">
+      <c r="G55" s="50">
         <v>1.6608391608391611</v>
       </c>
-      <c r="H55" s="59">
+      <c r="H55" s="51">
         <v>1.8356643356643361</v>
       </c>
-      <c r="I55" s="57">
+      <c r="I55" s="49">
         <v>6.7307692307692317</v>
       </c>
-      <c r="J55" s="58">
+      <c r="J55" s="50">
         <v>4.3706293706293708</v>
       </c>
-      <c r="K55" s="58">
+      <c r="K55" s="50">
         <v>9.1783216783216783</v>
       </c>
-      <c r="L55" s="57">
-        <v>0</v>
-      </c>
-      <c r="M55" s="58">
-        <v>0</v>
-      </c>
-      <c r="N55" s="59">
+      <c r="L55" s="49">
+        <v>0</v>
+      </c>
+      <c r="M55" s="50">
+        <v>0</v>
+      </c>
+      <c r="N55" s="51">
         <v>0.17482517482517479</v>
       </c>
-      <c r="O55" s="57">
+      <c r="O55" s="49">
         <v>2.36013986013986</v>
       </c>
-      <c r="P55" s="58">
+      <c r="P55" s="50">
         <v>1.573426573426574</v>
       </c>
-      <c r="Q55" s="59">
+      <c r="Q55" s="51">
         <v>2.4475524475524479</v>
       </c>
-      <c r="R55" s="57">
+      <c r="R55" s="49">
         <v>9.3531468531468533</v>
       </c>
-      <c r="S55" s="58">
+      <c r="S55" s="50">
         <v>8.2167832167832167</v>
       </c>
-      <c r="T55" s="59">
+      <c r="T55" s="51">
         <v>9.965034965034965</v>
       </c>
-      <c r="U55" s="57">
-        <v>0</v>
-      </c>
-      <c r="V55" s="58">
+      <c r="U55" s="49">
+        <v>0</v>
+      </c>
+      <c r="V55" s="50">
         <v>0.61188811188811187</v>
       </c>
-      <c r="W55" s="59">
+      <c r="W55" s="51">
         <v>0.96153846153846156</v>
       </c>
-      <c r="X55" s="57">
+      <c r="X55" s="49">
         <v>5.5069930069930066</v>
       </c>
-      <c r="Y55" s="58">
+      <c r="Y55" s="50">
         <v>6.2062937062937058</v>
       </c>
-      <c r="Z55" s="59">
+      <c r="Z55" s="51">
         <v>7.08041958041958</v>
       </c>
-      <c r="AA55" s="57">
+      <c r="AA55" s="49">
         <v>1.7482517482517479</v>
       </c>
-      <c r="AB55" s="58">
+      <c r="AB55" s="50">
         <v>1.311188811188811</v>
       </c>
-      <c r="AC55" s="59">
+      <c r="AC55" s="51">
         <v>1.573426573426574</v>
       </c>
-      <c r="AD55" s="57">
+      <c r="AD55" s="49">
         <v>11.71328671328671</v>
       </c>
-      <c r="AE55" s="58">
+      <c r="AE55" s="50">
         <v>11.53846153846154</v>
       </c>
-      <c r="AF55" s="59">
+      <c r="AF55" s="51">
         <v>13.11188811188811</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A56" s="25"/>
-      <c r="B56" s="34" t="s">
+      <c r="A56" s="54"/>
+      <c r="B56" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C56" s="41">
-        <v>0</v>
-      </c>
-      <c r="D56" s="42">
-        <v>0</v>
-      </c>
-      <c r="E56" s="43">
-        <v>0</v>
-      </c>
-      <c r="F56" s="44">
-        <v>0</v>
-      </c>
-      <c r="G56" s="45">
-        <v>0</v>
-      </c>
-      <c r="H56" s="46">
-        <v>0</v>
-      </c>
-      <c r="I56" s="41">
-        <v>0</v>
-      </c>
-      <c r="J56" s="42">
-        <v>0</v>
-      </c>
-      <c r="K56" s="42">
-        <v>0</v>
-      </c>
-      <c r="L56" s="44">
-        <v>0</v>
-      </c>
-      <c r="M56" s="45">
-        <v>0</v>
-      </c>
-      <c r="N56" s="46">
-        <v>0</v>
-      </c>
-      <c r="O56" s="41">
-        <v>0</v>
-      </c>
-      <c r="P56" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q56" s="43">
-        <v>0</v>
-      </c>
-      <c r="R56" s="44">
-        <v>0</v>
-      </c>
-      <c r="S56" s="45">
-        <v>0</v>
-      </c>
-      <c r="T56" s="46">
-        <v>0</v>
-      </c>
-      <c r="U56" s="41">
-        <v>0</v>
-      </c>
-      <c r="V56" s="42">
-        <v>0</v>
-      </c>
-      <c r="W56" s="43">
-        <v>0</v>
-      </c>
-      <c r="X56" s="44">
-        <v>0</v>
-      </c>
-      <c r="Y56" s="45">
-        <v>0</v>
-      </c>
-      <c r="Z56" s="46">
-        <v>0</v>
-      </c>
-      <c r="AA56" s="41">
-        <v>0</v>
-      </c>
-      <c r="AB56" s="42">
-        <v>0</v>
-      </c>
-      <c r="AC56" s="43">
-        <v>0</v>
-      </c>
-      <c r="AD56" s="44">
-        <v>0</v>
-      </c>
-      <c r="AE56" s="45">
-        <v>0</v>
-      </c>
-      <c r="AF56" s="46">
+      <c r="C56" s="36">
+        <v>0</v>
+      </c>
+      <c r="D56" s="37">
+        <v>0</v>
+      </c>
+      <c r="E56" s="38">
+        <v>0</v>
+      </c>
+      <c r="F56" s="39">
+        <v>0</v>
+      </c>
+      <c r="G56" s="40">
+        <v>0</v>
+      </c>
+      <c r="H56" s="41">
+        <v>0</v>
+      </c>
+      <c r="I56" s="36">
+        <v>0</v>
+      </c>
+      <c r="J56" s="37">
+        <v>0</v>
+      </c>
+      <c r="K56" s="37">
+        <v>0</v>
+      </c>
+      <c r="L56" s="39">
+        <v>0</v>
+      </c>
+      <c r="M56" s="40">
+        <v>0</v>
+      </c>
+      <c r="N56" s="41">
+        <v>0</v>
+      </c>
+      <c r="O56" s="36">
+        <v>0</v>
+      </c>
+      <c r="P56" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="38">
+        <v>0</v>
+      </c>
+      <c r="R56" s="39">
+        <v>0</v>
+      </c>
+      <c r="S56" s="40">
+        <v>0</v>
+      </c>
+      <c r="T56" s="41">
+        <v>0</v>
+      </c>
+      <c r="U56" s="36">
+        <v>0</v>
+      </c>
+      <c r="V56" s="37">
+        <v>0</v>
+      </c>
+      <c r="W56" s="38">
+        <v>0</v>
+      </c>
+      <c r="X56" s="39">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="40">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="41">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="36">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="37">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="38">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="39">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="40">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="41">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A57" s="26"/>
-      <c r="B57" s="34" t="s">
+      <c r="A57" s="55"/>
+      <c r="B57" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="C57" s="47">
+      <c r="C57" s="42">
         <v>1</v>
       </c>
-      <c r="D57" s="48">
+      <c r="D57" s="43">
         <v>1</v>
       </c>
-      <c r="E57" s="49">
+      <c r="E57" s="44">
         <v>1</v>
       </c>
-      <c r="F57" s="50">
-        <v>0</v>
-      </c>
-      <c r="G57" s="51">
-        <v>0</v>
-      </c>
-      <c r="H57" s="52">
-        <v>0</v>
-      </c>
-      <c r="I57" s="47">
+      <c r="F57" s="45">
+        <v>0</v>
+      </c>
+      <c r="G57" s="46">
+        <v>0</v>
+      </c>
+      <c r="H57" s="47">
+        <v>0</v>
+      </c>
+      <c r="I57" s="42">
         <v>1</v>
       </c>
-      <c r="J57" s="48">
-        <v>0</v>
-      </c>
-      <c r="K57" s="48">
+      <c r="J57" s="43">
+        <v>0</v>
+      </c>
+      <c r="K57" s="43">
         <v>1</v>
       </c>
-      <c r="L57" s="50">
-        <v>0</v>
-      </c>
-      <c r="M57" s="51">
-        <v>0</v>
-      </c>
-      <c r="N57" s="52">
-        <v>0</v>
-      </c>
-      <c r="O57" s="47">
-        <v>0</v>
-      </c>
-      <c r="P57" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="49">
-        <v>0</v>
-      </c>
-      <c r="R57" s="50">
+      <c r="L57" s="45">
+        <v>0</v>
+      </c>
+      <c r="M57" s="46">
+        <v>0</v>
+      </c>
+      <c r="N57" s="47">
+        <v>0</v>
+      </c>
+      <c r="O57" s="42">
+        <v>0</v>
+      </c>
+      <c r="P57" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="44">
+        <v>0</v>
+      </c>
+      <c r="R57" s="45">
         <v>1</v>
       </c>
-      <c r="S57" s="51">
+      <c r="S57" s="46">
         <v>1</v>
       </c>
-      <c r="T57" s="52">
+      <c r="T57" s="47">
         <v>1</v>
       </c>
-      <c r="U57" s="47">
-        <v>0</v>
-      </c>
-      <c r="V57" s="48">
-        <v>0</v>
-      </c>
-      <c r="W57" s="49">
-        <v>0</v>
-      </c>
-      <c r="X57" s="50">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="51">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="52">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="47">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="48">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="49">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="50">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="51">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="52">
+      <c r="U57" s="42">
+        <v>0</v>
+      </c>
+      <c r="V57" s="43">
+        <v>0</v>
+      </c>
+      <c r="W57" s="44">
+        <v>0</v>
+      </c>
+      <c r="X57" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="46">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="47">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="42">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="43">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="44">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="45">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="46">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="47">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A38:A42"/>
-    <mergeCell ref="A43:A47"/>
-    <mergeCell ref="A48:A52"/>
-    <mergeCell ref="A53:A57"/>
-    <mergeCell ref="A22:B37"/>
+    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="AD1:AF1"/>
+    <mergeCell ref="AA1:AC1"/>
+    <mergeCell ref="X1:Z1"/>
+    <mergeCell ref="U1:W1"/>
+    <mergeCell ref="R1:T1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="F1:H1"/>
@@ -26577,12 +26858,11 @@
     <mergeCell ref="A12:A16"/>
     <mergeCell ref="A7:A11"/>
     <mergeCell ref="A2:A6"/>
-    <mergeCell ref="AD1:AF1"/>
-    <mergeCell ref="AA1:AC1"/>
-    <mergeCell ref="X1:Z1"/>
-    <mergeCell ref="U1:W1"/>
-    <mergeCell ref="R1:T1"/>
-    <mergeCell ref="O1:Q1"/>
+    <mergeCell ref="A38:A42"/>
+    <mergeCell ref="A43:A47"/>
+    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="A53:A57"/>
+    <mergeCell ref="A22:B37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
